--- a/public/preprocessing/@tinatoon101.xlsx
+++ b/public/preprocessing/@tinatoon101.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19630</v>
+        <v>32367</v>
       </c>
       <c r="C2" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tindak lanjut tiang pln hampir jebol sdh beres semoga aman smuaaa aminnn</t>
+          <t>untuk mengawal serta mendorong seluruh lurah camat serta walikota agar menginventarisir betulbetul berbagai usula</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['tindak', 'lanjut', 'tiang', 'pln', 'hampir', 'jebol', 'sdh', 'beres', 'semoga', 'aman', 'smuaaa', 'aminnn']</t>
+          <t>['untuk', 'mengawal', 'serta', 'mendorong', 'seluruh', 'lurah', 'camat', 'serta', 'walikota', 'agar', 'menginventarisir', 'betulbetul', 'berbagai', 'usula']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['untuk', 'mengawal', 'serta', 'mendorong', 'seluruh', 'lurah', 'camat', 'serta', 'wali, kota', 'agar', 'menginventarisir', 'betulbetul', 'berbagai', 'usula']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['tindak', 'tiang', 'pln', 'jebol', 'beres', 'semoga', 'aman', 'smuaaa', 'aminnn']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['tindak', 'tiang', 'pln', 'jebol', 'beres', 'moga', 'aman', 'smuaaa', 'aminnn']</t>
+          <t>['mengawal', 'mendorong', 'lurah', 'camat', 'wali, kota', 'menginventarisir', 'betulbetul', 'usula']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['awal', 'dorong', 'lurah', 'camat', 'wali kota', 'menginventarisir', 'betulbetul', 'usula']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19631</v>
+        <v>32368</v>
       </c>
       <c r="C3" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tindak lanjut tanggul jebol hampir banjir dibikin tanggul sementara tp smoga kedepan semua bisa diperbaiki</t>
+          <t>latepost februari turut mengikuti agenda musyawarah rencana pembangunan musrenbang di wilayah kecamatan cili</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['tindak', 'lanjut', 'tanggul', 'jebol', 'hampir', 'banjir', 'dibikin', 'tanggul', 'sementara', 'tp', 'smoga', 'kedepan', 'semua', 'bisa', 'diperbaiki']</t>
+          <t>['latepost', 'februari', 'turut', 'mengikuti', 'agenda', 'musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'di', 'wilayah', 'kecamatan', 'cili']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['latepost', 'februari', 'turut', 'mengikuti', 'agenda', 'musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'di', 'wilayah', 'kecamatan', 'cili']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['tindak', 'tanggul', 'jebol', 'banjir', 'dibikin', 'tanggul', 'tp', 'smoga', 'kedepan', 'diperbaiki']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['tindak', 'tanggul', 'jebol', 'banjir', 'bikin', 'tanggul', 'tp', 'smoga', 'depan', 'baik']</t>
+          <t>['latepost', 'februari', 'mengikuti', 'agenda', 'musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'wilayah', 'kecamatan', 'cili']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['latepost', 'februari', 'ikut', 'agenda', 'musyawarah', 'rencana', 'bangun', 'musrenbang', 'wilayah', 'camat', 'cili']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19632</v>
+        <v>32369</v>
       </c>
       <c r="C4" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>tindaklanjut jalanan di klp gdg timur</t>
+          <t>untuk mengawal serta mendorong seluruh lurah camat serta walikota agar menginventarisir betulbetul berbagai usula</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['tindaklanjut', 'jalanan', 'di', 'klp', 'gdg', 'timur']</t>
+          <t>['untuk', 'mengawal', 'serta', 'mendorong', 'seluruh', 'lurah', 'camat', 'serta', 'walikota', 'agar', 'menginventarisir', 'betulbetul', 'berbagai', 'usula']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['untuk', 'mengawal', 'serta', 'mendorong', 'seluruh', 'lurah', 'camat', 'serta', 'wali, kota', 'agar', 'menginventarisir', 'betulbetul', 'berbagai', 'usula']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['tindaklanjut', 'jalanan', 'klp', 'gdg', 'timur']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['tindaklanjut', 'jalan', 'klp', 'gdg', 'timur']</t>
+          <t>['mengawal', 'mendorong', 'lurah', 'camat', 'wali, kota', 'menginventarisir', 'betulbetul', 'usula']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['awal', 'dorong', 'lurah', 'camat', 'wali kota', 'menginventarisir', 'betulbetul', 'usula']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19633</v>
+        <v>32370</v>
       </c>
       <c r="C5" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gaskeunnn jakarta yuhuuu</t>
+          <t>rt jakarta terbengkalainya janji kampanye program dp rupiah bermasalah sejak awal bapak warsono menyebut program rumah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['gaskeunnn', 'jakarta', 'yuhuuu']</t>
+          <t>['rt', 'jakarta', 'terbengkalainya', 'janji', 'kampanye', 'program', 'dp', 'rupiah', 'bermasalah', 'sejak', 'awal', 'bapak', 'warsono', 'menyebut', 'program', 'rumah']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'terbengkalainya', 'janji', 'kampanye', 'program', 'uang, muka', 'rupiah', 'bermasalah', 'sejak', 'awal', 'bapak', 'warsono', 'menyebut', 'program', 'rumah']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['gaskeunnn', 'jakarta', 'yuhuuu']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['gaskeunnn', 'jakarta', 'yuhuuu']</t>
+          <t>['jakarta', 'terbengkalainya', 'janji', 'kampanye', 'program', 'uang, muka', 'rupiah', 'bermasalah', 'warsono', 'menyebut', 'program', 'rumah']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['jakarta', 'bengkalai', 'janji', 'kampanye', 'program', 'uang muka', 'rupiah', 'masalah', 'warsono', 'sebut', 'program', 'rumah']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19634</v>
+        <v>32371</v>
       </c>
       <c r="C6" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>rt jakarta fraksi pdi perjuangan melalui ketua komisi  memanggil pemprov dki untuk mempertanggungjawabkan banji</t>
+          <t>rt jakarta turut berduka cita atas berpulangnya dengan tenang ibu yohana sutarmi usia tahun ibu dari bapak hasto kristiyanto</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rt', 'jakarta', 'fraksi', 'pdi', 'perjuangan', 'melalui', 'ketua', 'komisi', 'memanggil', 'pemprov', 'dki', 'untuk', 'mempertanggungjawabkan', 'banji']</t>
+          <t>['rt', 'jakarta', 'turut', 'berduka', 'cita', 'atas', 'berpulangnya', 'dengan', 'tenang', 'ibu', 'yohana', 'sutarmi', 'usia', 'tahun', 'ibu', 'dari', 'bapak', 'hasto', 'kristiyanto']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'turut', 'berduka', 'cita', 'atas', 'berpulangnya', 'dengan', 'tenang', 'ibu', 'yohana', 'sutarmi', 'usia', 'tahun', 'ibu', 'dari', 'bapak', 'hasto', 'kristiyanto']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['jakarta', 'fraksi', 'pdi', 'perjuangan', 'ketua', 'komisi', 'memanggil', 'pemprov', 'dki', 'mempertanggungjawabkan', 'banji']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['jakarta', 'fraksi', 'pdi', 'juang', 'ketua', 'komisi', 'panggil', 'pemprov', 'dki', 'mempertanggungjawabkan', 'banji']</t>
+          <t>['jakarta', 'berduka', 'cita', 'berpulangnya', 'tenang', 'yohana', 'sutarmi', 'usia', 'hasto', 'kristiyanto']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['jakarta', 'duka', 'cita', 'pulang', 'tenang', 'yohana', 'sutarmi', 'usia', 'hasto', 'kristiyanto']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19635</v>
+        <v>32372</v>
       </c>
       <c r="C7" t="n">
-        <v>238</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>part harusnya kuota petugas lapangan ditambah karena selain mengurangi pengangguran faktanya di lapangan cont</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['part', 'harusnya', 'kuota', 'petugas', 'lapangan', 'ditambah', 'karena', 'selain', 'mengurangi', 'pengangguran', 'faktanya', 'di', 'lapangan', 'cont']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['part', 'kuota', 'petugas', 'lapangan', 'ditambah', 'mengurangi', 'pengangguran', 'faktanya', 'lapangan', 'cont']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['part', 'kuota', 'tugas', 'lapang', 'tambah', 'kurang', 'anggur', 'fakta', 'lapang', 'cont']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -691,34 +722,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19636</v>
+        <v>32373</v>
       </c>
       <c r="C8" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>part banyak sekali yg ingin melamar posisi ini setiap tahunnya dan ternyata karena kontraknya adalah per tahun</t>
+          <t>akhirnya saat ini sudah di tindak lanjut amp ibu suratmi warga rorotan sudah memiliki kartu lansia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['part', 'banyak', 'sekali', 'yg', 'ingin', 'melamar', 'posisi', 'ini', 'setiap', 'tahunnya', 'dan', 'ternyata', 'karena', 'kontraknya', 'adalah', 'per', 'tahun']</t>
+          <t>['akhirnya', 'saat', 'ini', 'sudah', 'di', 'tindak', 'lanjut', 'amp', 'ibu', 'suratmi', 'warga', 'rorotan', 'sudah', 'memiliki', 'kartu', 'lansia']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['akhirnya', 'saat', 'ini', 'sudah', 'di', 'tindak', 'lanjut', 'amp', 'ibu', 'suratmi', 'warga', 'rorotan', 'sudah', 'memiliki', 'kartu', 'lanjut, usia']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['part', 'melamar', 'posisi', 'tahunnya', 'kontraknya']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['part', 'lamar', 'posisi', 'tahun', 'kontrak']</t>
+          <t>['tindak', 'suratmi', 'warga', 'rorotan', 'memiliki', 'kartu', 'lanjut, usia']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['tindak', 'suratmi', 'warga', 'rorotan', 'milik', 'kartu', 'lanjut usia']</t>
         </is>
       </c>
     </row>
@@ -727,34 +763,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19637</v>
+        <v>32374</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>part setelah sy cek ke biro perekrutan pjlp penyedia jasa lainnya perorangan untuk petugas biru ada di sudin sda</t>
+          <t>tindak lanjut pengaduan warga setelah mendapat aduan warga terkait belum mendapatkan kartu lansia selama ta</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['part', 'setelah', 'sy', 'cek', 'ke', 'biro', 'perekrutan', 'pjlp', 'penyedia', 'jasa', 'lainnya', 'perorangan', 'untuk', 'petugas', 'biru', 'ada', 'di', 'sudin', 'sda']</t>
+          <t>['tindak', 'lanjut', 'pengaduan', 'warga', 'setelah', 'mendapat', 'aduan', 'warga', 'terkait', 'belum', 'mendapatkan', 'kartu', 'lansia', 'selama', 'ta']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['tindak', 'lanjut', 'pengaduan', 'warga', 'setelah', 'mendapat', 'aduan', 'warga', 'terkait', 'belum', 'mendapatkan', 'kartu', 'lanjut, usia', 'selama', 'ta']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['part', 'sy', 'cek', 'biro', 'perekrutan', 'pjlp', 'penyedia', 'jasa', 'perorangan', 'petugas', 'biru', 'sudin', 'sda']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['part', 'sy', 'cek', 'biro', 'rekrut', 'pjlp', 'sedia', 'jasa', 'orang', 'tugas', 'biru', 'sudin', 'sda']</t>
+          <t>['tindak', 'pengaduan', 'warga', 'aduan', 'warga', 'terkait', 'kartu', 'lanjut, usia', 'ta']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['tindak', 'adu', 'warga', 'adu', 'warga', 'kait', 'kartu', 'lanjut usia', 'ta']</t>
         </is>
       </c>
     </row>
@@ -763,30 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19638</v>
+        <v>32375</v>
       </c>
       <c r="C10" t="n">
-        <v>238</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>375</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>tindaklanjut jalanan di klp gdg barat sekitar proyek tol yg bolong dan rusak akibat genangan dan hujan bbrp prose</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tindaklanjut', 'jalanan', 'di', 'klp', 'gdg', 'barat', 'sekitar', 'proyek', 'tol', 'yg', 'bolong', 'dan', 'rusak', 'akibat', 'genangan', 'dan', 'hujan', 'bbrp', 'prose']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tindaklanjut', 'jalanan', 'di', 'kelompok', 'gudang', 'barat', 'sekitar', 'proyek', 'tol', 'yang', 'bolong', 'dan', 'rusak', 'akibat', 'genangan', 'dan', 'hujan', 'beberapa', 'prose']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tindaklanjut', 'jalanan', 'kelompok', 'gudang', 'barat', 'proyek', 'tol', 'bolong', 'rusak', 'akibat', 'genangan', 'hujan', 'prose']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['tindaklanjut', 'jalan', 'kelompok', 'gudang', 'barat', 'proyek', 'tol', 'bolong', 'rusak', 'akibat', 'genang', 'hujan', 'prose']</t>
         </is>
       </c>
     </row>
@@ -795,30 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>19639</v>
+        <v>32376</v>
       </c>
       <c r="C11" t="n">
-        <v>238</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>375</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tindak lanjut tiang pln hampir jebol sdh beres semoga aman smuaaa aminnn</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tindak', 'lanjut', 'tiang', 'pln', 'hampir', 'jebol', 'sdh', 'beres', 'semoga', 'aman', 'smuaaa', 'aminnn']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tindak', 'lanjut', 'tiang', 'perusahaan, listrik, negara', 'hampir', 'jebol', 'sudah', 'beres', 'semoga', 'aman', 'smuaaa', 'amin']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['tindak', 'tiang', 'perusahaan, listrik, negara', 'jebol', 'beres', 'semoga', 'aman', 'smuaaa', 'amin']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['tindak', 'tiang', 'usaha listrik negara', 'jebol', 'beres', 'moga', 'aman', 'smuaaa', 'amin']</t>
         </is>
       </c>
     </row>
@@ -827,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>19640</v>
+        <v>32377</v>
       </c>
       <c r="C12" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">listrik nyala langsung geber pompa bgr semoga kelapa gading cilincing koja aman dan seluruh jakarta jg tdk banjir </t>
+          <t>tindak lanjut tanggul jebol hampir banjir dibikin tanggul sementara tp smoga kedepan semua bisa diperbaiki</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['listrik', 'nyala', 'langsung', 'geber', 'pompa', 'bgr', 'semoga', 'kelapa', 'gading', 'cilincing', 'koja', 'aman', 'dan', 'seluruh', 'jakarta', 'jg', 'tdk', 'banjir']</t>
+          <t>['tindak', 'lanjut', 'tanggul', 'jebol', 'hampir', 'banjir', 'dibikin', 'tanggul', 'sementara', 'tp', 'smoga', 'kedepan', 'semua', 'bisa', 'diperbaiki']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['tindak', 'lanjut', 'tanggul', 'jebol', 'hampir', 'banjir', 'dibuat', 'tanggul', 'sementara', 'tetapi', 'semoga', 'ke, depan', 'semua', 'bisa', 'diperbaiki']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['listrik', 'nyala', 'langsung', 'geber', 'pompa', 'bgr', 'semoga', 'kelapa', 'gading', 'cilincing', 'koja', 'aman', 'jakarta', 'jg', 'banjir']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['listrik', 'nyala', 'langsung', 'geber', 'pompa', 'bgr', 'moga', 'kelapa', 'gading', 'cilincing', 'koja', 'aman', 'jakarta', 'jg', 'banjir']</t>
+          <t>['tindak', 'tanggul', 'jebol', 'banjir', 'tanggul', 'semoga', 'ke, depan', 'diperbaiki']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['tindak', 'tanggul', 'jebol', 'banjir', 'tanggul', 'moga', 'ke depan', 'baik']</t>
         </is>
       </c>
     </row>
@@ -863,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>19641</v>
+        <v>32378</v>
       </c>
       <c r="C13" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kordinasi dan monitor pompa</t>
+          <t>tindaklanjut jalanan di klp gdg timur</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['kordinasi', 'dan', 'monitor', 'pompa']</t>
+          <t>['tindaklanjut', 'jalanan', 'di', 'klp', 'gdg', 'timur']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tindaklanjut', 'jalanan', 'di', 'kelompok', 'gudang', 'timur']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['kordinasi', 'monitor', 'pompa']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['kordinasi', 'monitor', 'pompa']</t>
+          <t>['tindaklanjut', 'jalanan', 'kelompok', 'gudang', 'timur']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['tindaklanjut', 'jalan', 'kelompok', 'gudang', 'timur']</t>
         </is>
       </c>
     </row>
@@ -899,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19642</v>
+        <v>32379</v>
       </c>
       <c r="C14" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>hujan gledek petir yaampun stay safe smua kordinasi dan monitor pompa yg listrik mati pake jenset semoga aman</t>
+          <t>gaskeunnn jakarta yuhuuu</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['hujan', 'gledek', 'petir', 'yaampun', 'stay', 'safe', 'smua', 'kordinasi', 'dan', 'monitor', 'pompa', 'yg', 'listrik', 'mati', 'pake', 'jenset', 'semoga', 'aman']</t>
+          <t>['gaskeunnn', 'jakarta', 'yuhuuu']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['gaskeunnn', 'jakarta', 'yuhuuu']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['hujan', 'gledek', 'petir', 'yaampun', 'stay', 'safe', 'smua', 'kordinasi', 'monitor', 'pompa', 'listrik', 'mati', 'pake', 'jenset', 'semoga', 'aman']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['hujan', 'gledek', 'petir', 'yaampun', 'stay', 'safe', 'smua', 'kordinasi', 'monitor', 'pompa', 'listrik', 'mati', 'pake', 'jenset', 'moga', 'aman']</t>
+          <t>['gaskeunnn', 'jakarta', 'yuhuuu']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['gaskeunnn', 'jakarta', 'yuhuuu']</t>
         </is>
       </c>
     </row>
@@ -935,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19643</v>
+        <v>32380</v>
       </c>
       <c r="C15" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>antisipasi banjir pompaa kordinasi monitor siaga</t>
+          <t>rt jakarta fraksi pdi perjuangan melalui ketua komisi  memanggil pemprov dki untuk mempertanggungjawabkan banji</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['antisipasi', 'banjir', 'pompaa', 'kordinasi', 'monitor', 'siaga']</t>
+          <t>['rt', 'jakarta', 'fraksi', 'pdi', 'perjuangan', 'melalui', 'ketua', 'komisi', 'memanggil', 'pemprov', 'dki', 'untuk', 'mempertanggungjawabkan', 'banji']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'fraksi', 'partai, demokrasi, indonesia', 'perjuangan', 'melalui', 'ketua', 'komisi', 'memanggil', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'untuk', 'mempertanggungjawabkan', 'banji']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['antisipasi', 'banjir', 'pompaa', 'kordinasi', 'monitor', 'siaga']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['antisipasi', 'banjir', 'pompaa', 'kordinasi', 'monitor', 'siaga']</t>
+          <t>['jakarta', 'fraksi', 'partai, demokrasi, indonesia', 'perjuangan', 'ketua', 'komisi', 'memanggil', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'mempertanggungjawabkan', 'banji']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['jakarta', 'fraksi', 'partai demokrasi indonesia', 'juang', 'ketua', 'komisi', 'panggil', 'perintah provinsi', 'daerah khusus ibukota', 'mempertanggungjawabkan', 'banji']</t>
         </is>
       </c>
     </row>
@@ -971,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>19644</v>
+        <v>32381</v>
       </c>
       <c r="C16" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>antisipasi banjir kerukan kali kordinasi monitor siaga</t>
+          <t>part harusnya kuota petugas lapangan ditambah karena selain mengurangi pengangguran faktanya di lapangan cont</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['antisipasi', 'banjir', 'kerukan', 'kali', 'kordinasi', 'monitor', 'siaga']</t>
+          <t>['part', 'harusnya', 'kuota', 'petugas', 'lapangan', 'ditambah', 'karena', 'selain', 'mengurangi', 'pengangguran', 'faktanya', 'di', 'lapangan', 'cont']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['part', 'harusnya', 'kuota', 'petugas', 'lapangan', 'ditambah', 'karena', 'selain', 'mengurangi', 'pengangguran', 'faktanya', 'di', 'lapangan', 'cont']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['antisipasi', 'banjir', 'kerukan', 'kali', 'kordinasi', 'monitor', 'siaga']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['antisipasi', 'banjir', 'kerukan', 'kali', 'kordinasi', 'monitor', 'siaga']</t>
+          <t>['part', 'kuota', 'petugas', 'lapangan', 'ditambah', 'mengurangi', 'pengangguran', 'faktanya', 'lapangan', 'cont']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['part', 'kuota', 'tugas', 'lapang', 'tambah', 'kurang', 'anggur', 'fakta', 'lapang', 'cont']</t>
         </is>
       </c>
     </row>
@@ -1007,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>19645</v>
+        <v>32382</v>
       </c>
       <c r="C17" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>musyawarah rencana pembangunan musrenbang tingkat kecamatan koja</t>
+          <t>part banyak sekali yg ingin melamar posisi ini setiap tahunnya dan ternyata karena kontraknya adalah per tahun</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'tingkat', 'kecamatan', 'koja']</t>
+          <t>['part', 'banyak', 'sekali', 'yg', 'ingin', 'melamar', 'posisi', 'ini', 'setiap', 'tahunnya', 'dan', 'ternyata', 'karena', 'kontraknya', 'adalah', 'per', 'tahun']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['part', 'banyak', 'sekali', 'yang', 'ingin', 'melamar', 'posisi', 'ini', 'setiap', 'tahunnya', 'dan', 'ternyata', 'karena', 'kontraknya', 'adalah', 'per', 'tahun']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'tingkat', 'kecamatan', 'koja']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['musyawarah', 'rencana', 'bangun', 'musrenbang', 'tingkat', 'camat', 'koja']</t>
+          <t>['part', 'melamar', 'posisi', 'tahunnya', 'kontraknya']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['part', 'lamar', 'posisi', 'tahun', 'kontrak']</t>
         </is>
       </c>
     </row>
@@ -1043,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19646</v>
+        <v>32383</v>
       </c>
       <c r="C18" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>musrenbang musyawarah rencana pembangunan tingkat kecamatan kelapa gading</t>
+          <t>part setelah sy cek ke biro perekrutan pjlp penyedia jasa lainnya perorangan untuk petugas biru ada di sudin sda</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['musrenbang', 'musyawarah', 'rencana', 'pembangunan', 'tingkat', 'kecamatan', 'kelapa', 'gading']</t>
+          <t>['part', 'setelah', 'sy', 'cek', 'ke', 'biro', 'perekrutan', 'pjlp', 'penyedia', 'jasa', 'lainnya', 'perorangan', 'untuk', 'petugas', 'biru', 'ada', 'di', 'sudin', 'sda']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['part', 'setelah', 'saya', 'cek', 'ke', 'biro', 'perekrutan', 'pjlp', 'penyedia', 'jasa', 'lainnya', 'perorangan', 'untuk', 'petugas', 'biru', 'ada', 'di', 'sudin', 'sda']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['musrenbang', 'musyawarah', 'rencana', 'pembangunan', 'tingkat', 'kecamatan', 'kelapa', 'gading']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['musrenbang', 'musyawarah', 'rencana', 'bangun', 'tingkat', 'camat', 'kelapa', 'gading']</t>
+          <t>['part', 'cek', 'biro', 'perekrutan', 'pjlp', 'penyedia', 'jasa', 'perorangan', 'petugas', 'biru', 'sudin', 'sda']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['part', 'cek', 'biro', 'rekrut', 'pjlp', 'sedia', 'jasa', 'orang', 'tugas', 'biru', 'sudin', 'sda']</t>
         </is>
       </c>
     </row>
@@ -1079,34 +1173,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>19647</v>
+        <v>32384</v>
       </c>
       <c r="C19" t="n">
-        <v>238</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>kordinasi dan monitor pompa persiapan hujan prediksi bmkg di cikoding</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['kordinasi', 'dan', 'monitor', 'pompa', 'persiapan', 'hujan', 'prediksi', 'bmkg', 'di', 'cikoding']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['kordinasi', 'monitor', 'pompa', 'persiapan', 'hujan', 'prediksi', 'bmkg', 'cikoding']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['kordinasi', 'monitor', 'pompa', 'siap', 'hujan', 'prediksi', 'bmkg', 'cikoding']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1115,10 +1210,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19648</v>
+        <v>32385</v>
       </c>
       <c r="C20" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1128,15 +1223,20 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1147,30 +1247,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19649</v>
+        <v>32386</v>
       </c>
       <c r="C21" t="n">
-        <v>238</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>375</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">listrik nyala langsung geber pompa bgr semoga kelapa gading cilincing koja aman dan seluruh jakarta jg tdk banjir </t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['listrik', 'nyala', 'langsung', 'geber', 'pompa', 'bgr', 'semoga', 'kelapa', 'gading', 'cilincing', 'koja', 'aman', 'dan', 'seluruh', 'jakarta', 'jg', 'tdk', 'banjir']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['listrik', 'nyala', 'langsung', 'geber', 'pompa', 'bgr', 'semoga', 'kelapa', 'gading', 'cilincing', 'koja', 'aman', 'dan', 'seluruh', 'jakarta', 'juga', 'tidak', 'banjir']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['listrik', 'nyala', 'langsung', 'geber', 'pompa', 'bgr', 'semoga', 'kelapa', 'gading', 'cilincing', 'koja', 'aman', 'jakarta', 'banjir']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['listrik', 'nyala', 'langsung', 'geber', 'pompa', 'bgr', 'moga', 'kelapa', 'gading', 'cilincing', 'koja', 'aman', 'jakarta', 'banjir']</t>
         </is>
       </c>
     </row>
@@ -1179,34 +1288,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19650</v>
+        <v>32387</v>
       </c>
       <c r="C22" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt perjuangan aksi konkret pdi perjuangan membantu korban banjir dan bencana alam baguna semakin solid bergerak dalam mengatasi masa</t>
+          <t>kordinasi dan monitor pompa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'perjuangan', 'aksi', 'konkret', 'pdi', 'perjuangan', 'membantu', 'korban', 'banjir', 'dan', 'bencana', 'alam', 'baguna', 'semakin', 'solid', 'bergerak', 'dalam', 'mengatasi', 'masa']</t>
+          <t>['kordinasi', 'dan', 'monitor', 'pompa']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['kordinasi', 'dan', 'monitor', 'pompa']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['perjuangan', 'aksi', 'konkret', 'pdi', 'perjuangan', 'membantu', 'korban', 'banjir', 'bencana', 'alam', 'baguna', 'solid', 'bergerak', 'mengatasi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['juang', 'aksi', 'konkret', 'pdi', 'juang', 'bantu', 'korban', 'banjir', 'bencana', 'alam', 'baguna', 'solid', 'gerak', 'atas']</t>
+          <t>['kordinasi', 'monitor', 'pompa']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'monitor', 'pompa']</t>
         </is>
       </c>
     </row>
@@ -1215,34 +1329,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>19651</v>
+        <v>32388</v>
       </c>
       <c r="C23" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>normalisasi wajib dilakukan segera pemprov dki jakarta dan infrastruktur penanggulangan banjir jg diadakan sege</t>
+          <t>hujan gledek petir yaampun stay safe smua kordinasi dan monitor pompa yg listrik mati pake jenset semoga aman</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['normalisasi', 'wajib', 'dilakukan', 'segera', 'pemprov', 'dki', 'jakarta', 'dan', 'infrastruktur', 'penanggulangan', 'banjir', 'jg', 'diadakan', 'sege']</t>
+          <t>['hujan', 'gledek', 'petir', 'yaampun', 'stay', 'safe', 'smua', 'kordinasi', 'dan', 'monitor', 'pompa', 'yg', 'listrik', 'mati', 'pake', 'jenset', 'semoga', 'aman']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['hujan', 'gledek', 'petir', 'ya, ampun', 'stay', 'aman', 'semua', 'kordinasi', 'dan', 'monitor', 'pompa', 'yang', 'listrik', 'mati', 'pakai', 'jenset', 'semoga', 'aman']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['normalisasi', 'wajib', 'pemprov', 'dki', 'jakarta', 'infrastruktur', 'penanggulangan', 'banjir', 'jg', 'diadakan', 'sege']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['normalisasi', 'wajib', 'pemprov', 'dki', 'jakarta', 'infrastruktur', 'tanggulang', 'banjir', 'jg', 'ada', 'sege']</t>
+          <t>['hujan', 'gledek', 'petir', 'ya, ampun', 'stay', 'aman', 'kordinasi', 'monitor', 'pompa', 'listrik', 'mati', 'pakai', 'jenset', 'semoga', 'aman']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['hujan', 'gledek', 'petir', 'ya ampun', 'stay', 'aman', 'kordinasi', 'monitor', 'pompa', 'listrik', 'mati', 'pakai', 'jenset', 'moga', 'aman']</t>
         </is>
       </c>
     </row>
@@ -1251,34 +1370,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>19652</v>
+        <v>32389</v>
       </c>
       <c r="C24" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jakarta program naturalisasi yang digaungkan gubernur dki jakarta anies baswedan semasa memimpin jakarta lalu hingga saat </t>
+          <t>antisipasi banjir pompaa kordinasi monitor siaga</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'jakarta', 'program', 'naturalisasi', 'yang', 'digaungkan', 'gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'semasa', 'memimpin', 'jakarta', 'lalu', 'hingga', 'saat']</t>
+          <t>['antisipasi', 'banjir', 'pompaa', 'kordinasi', 'monitor', 'siaga']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['antisipasi', 'banjir', 'pompaa', 'kordinasi', 'monitor', 'siaga']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['jakarta', 'program', 'naturalisasi', 'digaungkan', 'gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'memimpin', 'jakarta']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['jakarta', 'program', 'naturalisasi', 'gaung', 'gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'pimpin', 'jakarta']</t>
+          <t>['antisipasi', 'banjir', 'pompaa', 'kordinasi', 'monitor', 'siaga']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['antisipasi', 'banjir', 'pompaa', 'kordinasi', 'monitor', 'siaga']</t>
         </is>
       </c>
     </row>
@@ -1287,34 +1411,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>19653</v>
+        <v>32390</v>
       </c>
       <c r="C25" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>trims atas kerja keras petugas biru dan sda jakut</t>
+          <t>antisipasi banjir kerukan kali kordinasi monitor siaga</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['trims', 'atas', 'kerja', 'keras', 'petugas', 'biru', 'dan', 'sda', 'jakut']</t>
+          <t>['antisipasi', 'banjir', 'kerukan', 'kali', 'kordinasi', 'monitor', 'siaga']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['antisipasi', 'banjir', 'kerukan', 'kali', 'kordinasi', 'monitor', 'siaga']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['trims', 'kerja', 'keras', 'petugas', 'biru', 'sda', 'jakut']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['trims', 'kerja', 'keras', 'tugas', 'biru', 'sda', 'jakut']</t>
+          <t>['antisipasi', 'banjir', 'kerukan', 'kali', 'kordinasi', 'monitor', 'siaga']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['antisipasi', 'banjir', 'kerukan', 'kali', 'kordinasi', 'monitor', 'siaga']</t>
         </is>
       </c>
     </row>
@@ -1323,30 +1452,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19654</v>
+        <v>32391</v>
       </c>
       <c r="C26" t="n">
-        <v>238</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>375</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>musyawarah rencana pembangunan musrenbang tingkat kecamatan koja</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'tingkat', 'kecamatan', 'koja']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'tingkat', 'kecamatan', 'koja']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['musyawarah', 'rencana', 'pembangunan', 'musrenbang', 'tingkat', 'kecamatan', 'koja']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['musyawarah', 'rencana', 'bangun', 'musrenbang', 'tingkat', 'camat', 'koja']</t>
         </is>
       </c>
     </row>
@@ -1355,30 +1493,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>19655</v>
+        <v>32392</v>
       </c>
       <c r="C27" t="n">
-        <v>238</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>375</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>musrenbang musyawarah rencana pembangunan tingkat kecamatan kelapa gading</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['musrenbang', 'musyawarah', 'rencana', 'pembangunan', 'tingkat', 'kecamatan', 'kelapa', 'gading']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['musrenbang', 'musyawarah', 'rencana', 'pembangunan', 'tingkat', 'kecamatan', 'kelapa', 'gading']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['musrenbang', 'musyawarah', 'rencana', 'pembangunan', 'tingkat', 'kecamatan', 'kelapa', 'gading']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['musrenbang', 'musyawarah', 'rencana', 'bangun', 'tingkat', 'camat', 'kelapa', 'gading']</t>
         </is>
       </c>
     </row>
@@ -1387,34 +1534,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>19656</v>
+        <v>32393</v>
       </c>
       <c r="C28" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>monitor dan siaga untuk pompa saluran penampungan dan sampah yg menghambat aliran air</t>
+          <t>kordinasi dan monitor pompa persiapan hujan prediksi bmkg di cikoding</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['monitor', 'dan', 'siaga', 'untuk', 'pompa', 'saluran', 'penampungan', 'dan', 'sampah', 'yg', 'menghambat', 'aliran', 'air']</t>
+          <t>['kordinasi', 'dan', 'monitor', 'pompa', 'persiapan', 'hujan', 'prediksi', 'bmkg', 'di', 'cikoding']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['kordinasi', 'dan', 'monitor', 'pompa', 'persiapan', 'hujan', 'prediksi', 'bmkg', 'di', 'cikoding']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['monitor', 'siaga', 'pompa', 'saluran', 'penampungan', 'sampah', 'menghambat', 'aliran', 'air']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['monitor', 'siaga', 'pompa', 'salur', 'tampung', 'sampah', 'hambat', 'alir', 'air']</t>
+          <t>['kordinasi', 'monitor', 'pompa', 'persiapan', 'hujan', 'prediksi', 'bmkg', 'cikoding']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'monitor', 'pompa', 'siap', 'hujan', 'prediksi', 'bmkg', 'cikoding']</t>
         </is>
       </c>
     </row>
@@ -1423,34 +1575,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>19657</v>
+        <v>32394</v>
       </c>
       <c r="C29" t="n">
-        <v>238</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>perjuangan</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['perjuangan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['perjuangan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['juang']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1459,34 +1612,35 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>19658</v>
+        <v>32395</v>
       </c>
       <c r="C30" t="n">
-        <v>238</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>pompa mobile on monitor dan kordinasi dgn sda berjalan trus semangat</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'on', 'monitor', 'dan', 'kordinasi', 'dgn', 'sda', 'berjalan', 'trus', 'semangat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'on', 'monitor', 'kordinasi', 'sda', 'berjalan', 'trus', 'semangat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'on', 'monitor', 'kordinasi', 'sda', 'jalan', 'trus', 'semangat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1495,34 +1649,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>19659</v>
+        <v>32396</v>
       </c>
       <c r="C31" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>pantauan pompa pembersihan sampah dan penampungan monitor dan siaga selalu utk klp gdg cilincing koja</t>
+          <t>rt perjuangan aksi konkret pdi perjuangan membantu korban banjir dan bencana alam baguna semakin solid bergerak dalam mengatasi masa</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['pantauan', 'pompa', 'pembersihan', 'sampah', 'dan', 'penampungan', 'monitor', 'dan', 'siaga', 'selalu', 'utk', 'klp', 'gdg', 'cilincing', 'koja']</t>
+          <t>['rt', 'perjuangan', 'aksi', 'konkret', 'pdi', 'perjuangan', 'membantu', 'korban', 'banjir', 'dan', 'bencana', 'alam', 'baguna', 'semakin', 'solid', 'bergerak', 'dalam', 'mengatasi', 'masa']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'perjuangan', 'aksi', 'konkret', 'partai, demokrasi, indonesia', 'perjuangan', 'membantu', 'korban', 'banjir', 'dan', 'bencana', 'alam', 'baguna', 'semakin', 'solid', 'bergerak', 'dalam', 'mengatasi', 'masa']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['pantauan', 'pompa', 'pembersihan', 'sampah', 'penampungan', 'monitor', 'siaga', 'klp', 'gdg', 'cilincing', 'koja']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['pantau', 'pompa', 'bersih', 'sampah', 'tampung', 'monitor', 'siaga', 'klp', 'gdg', 'cilincing', 'koja']</t>
+          <t>['perjuangan', 'aksi', 'konkret', 'partai, demokrasi, indonesia', 'perjuangan', 'membantu', 'korban', 'banjir', 'bencana', 'alam', 'baguna', 'solid', 'bergerak', 'mengatasi']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['juang', 'aksi', 'konkret', 'partai demokrasi indonesia', 'juang', 'bantu', 'korban', 'banjir', 'bencana', 'alam', 'baguna', 'solid', 'gerak', 'atas']</t>
         </is>
       </c>
     </row>
@@ -1531,34 +1690,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>19660</v>
+        <v>32397</v>
       </c>
       <c r="C32" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>perjuangan</t>
+          <t>normalisasi wajib dilakukan segera pemprov dki jakarta dan infrastruktur penanggulangan banjir jg diadakan sege</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['perjuangan']</t>
+          <t>['normalisasi', 'wajib', 'dilakukan', 'segera', 'pemprov', 'dki', 'jakarta', 'dan', 'infrastruktur', 'penanggulangan', 'banjir', 'jg', 'diadakan', 'sege']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['normalisasi', 'wajib', 'dilakukan', 'segera', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'dan', 'infrastruktur', 'penanggulangan', 'banjir', 'juga', 'diadakan', 'sege']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['perjuangan']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['juang']</t>
+          <t>['normalisasi', 'wajib', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'jakarta', 'infrastruktur', 'penanggulangan', 'banjir', 'diadakan', 'sege']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['normalisasi', 'wajib', 'perintah provinsi', 'daerah khusus ibukota', 'jakarta', 'infrastruktur', 'tanggulang', 'banjir', 'ada', 'sege']</t>
         </is>
       </c>
     </row>
@@ -1567,34 +1731,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>19661</v>
+        <v>32398</v>
       </c>
       <c r="C33" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>kordinasi dan monitor genangan untuk segera disurutkan</t>
+          <t xml:space="preserve">rt jakarta program naturalisasi yang digaungkan gubernur dki jakarta anies baswedan semasa memimpin jakarta lalu hingga saat </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['kordinasi', 'dan', 'monitor', 'genangan', 'untuk', 'segera', 'disurutkan']</t>
+          <t>['rt', 'jakarta', 'program', 'naturalisasi', 'yang', 'digaungkan', 'gubernur', 'dki', 'jakarta', 'anies', 'baswedan', 'semasa', 'memimpin', 'jakarta', 'lalu', 'hingga', 'saat']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'program', 'naturalisasi', 'yang', 'digaungkan', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'anies', 'baswedan', 'semasa', 'memimpin', 'jakarta', 'lalu', 'hingga', 'saat']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['kordinasi', 'monitor', 'genangan', 'disurutkan']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['kordinasi', 'monitor', 'genang', 'surut']</t>
+          <t>['jakarta', 'program', 'naturalisasi', 'digaungkan', 'gubernur', 'daerah, khusus, ibukota', 'jakarta', 'anies', 'baswedan', 'memimpin', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['jakarta', 'program', 'naturalisasi', 'gaung', 'gubernur', 'daerah khusus ibukota', 'jakarta', 'anies', 'baswedan', 'pimpin', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -1603,34 +1772,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>19662</v>
+        <v>32399</v>
       </c>
       <c r="C34" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>kordinasi banjir subuh semangat semoga ga banjir klp gdg cilincing koja dan seluruh jakarta dan kalau ada gena</t>
+          <t>trims atas kerja keras petugas biru dan sda jakut</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['kordinasi', 'banjir', 'subuh', 'semangat', 'semoga', 'ga', 'banjir', 'klp', 'gdg', 'cilincing', 'koja', 'dan', 'seluruh', 'jakarta', 'dan', 'kalau', 'ada', 'gena']</t>
+          <t>['trims', 'atas', 'kerja', 'keras', 'petugas', 'biru', 'dan', 'sda', 'jakut']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['terima, kasih', 'atas', 'kerja', 'keras', 'petugas', 'biru', 'dan', 'sda', 'jakarta, utara']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['kordinasi', 'banjir', 'subuh', 'semangat', 'semoga', 'banjir', 'klp', 'gdg', 'cilincing', 'koja', 'jakarta', 'gena']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['kordinasi', 'banjir', 'subuh', 'semangat', 'moga', 'banjir', 'klp', 'gdg', 'cilincing', 'koja', 'jakarta', 'gena']</t>
+          <t>['terima, kasih', 'kerja', 'keras', 'petugas', 'biru', 'sda', 'jakarta, utara']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'kerja', 'keras', 'tugas', 'biru', 'sda', 'jakarta utara']</t>
         </is>
       </c>
     </row>
@@ -1639,34 +1813,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19663</v>
+        <v>32400</v>
       </c>
       <c r="C35" t="n">
-        <v>238</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>pompa apung dan posko biru siaga banjir</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['pompa', 'apung', 'dan', 'posko', 'biru', 'siaga', 'banjir']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['pompa', 'apung', 'posko', 'biru', 'siaga', 'banjir']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['pompa', 'apung', 'posko', 'biru', 'siaga', 'banjir']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1675,34 +1850,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19664</v>
+        <v>32401</v>
       </c>
       <c r="C36" t="n">
-        <v>238</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>mobile pump lps dan lps surutkan trus smoga ga banjir</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['mobile', 'pump', 'lps', 'dan', 'lps', 'surutkan', 'trus', 'smoga', 'ga', 'banjir']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['mobile', 'pump', 'lps', 'lps', 'surutkan', 'trus', 'smoga', 'banjir']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['mobile', 'pump', 'lps', 'lps', 'surut', 'trus', 'smoga', 'banjir']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1711,34 +1887,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19665</v>
+        <v>32402</v>
       </c>
       <c r="C37" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>monitor pompa apung untuk surutkan genangan yg ada langsung</t>
+          <t>monitor dan siaga untuk pompa saluran penampungan dan sampah yg menghambat aliran air</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'apung', 'untuk', 'surutkan', 'genangan', 'yg', 'ada', 'langsung']</t>
+          <t>['monitor', 'dan', 'siaga', 'untuk', 'pompa', 'saluran', 'penampungan', 'dan', 'sampah', 'yg', 'menghambat', 'aliran', 'air']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['monitor', 'dan', 'siaga', 'untuk', 'pompa', 'saluran', 'penampungan', 'dan', 'sampah', 'yang', 'menghambat', 'aliran', 'air']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'apung', 'surutkan', 'genangan', 'langsung']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'apung', 'surut', 'genang', 'langsung']</t>
+          <t>['monitor', 'siaga', 'pompa', 'saluran', 'penampungan', 'sampah', 'menghambat', 'aliran', 'air']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['monitor', 'siaga', 'pompa', 'salur', 'tampung', 'sampah', 'hambat', 'alir', 'air']</t>
         </is>
       </c>
     </row>
@@ -1747,34 +1928,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>19666</v>
+        <v>32403</v>
       </c>
       <c r="C38" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>monitor rupom jalan on dan standby untuk persiapan cuaca ekstreme jakut cilincing koja klp gdg</t>
+          <t>perjuangan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['monitor', 'rupom', 'jalan', 'on', 'dan', 'standby', 'untuk', 'persiapan', 'cuaca', 'ekstreme', 'jakut', 'cilincing', 'koja', 'klp', 'gdg']</t>
+          <t>['perjuangan']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['perjuangan']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['monitor', 'rupom', 'jalan', 'on', 'standby', 'persiapan', 'cuaca', 'ekstreme', 'jakut', 'cilincing', 'koja', 'klp', 'gdg']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['monitor', 'rupom', 'jalan', 'on', 'standby', 'siap', 'cuaca', 'ekstreme', 'jakut', 'cilincing', 'koja', 'klp', 'gdg']</t>
+          <t>['perjuangan']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['juang']</t>
         </is>
       </c>
     </row>
@@ -1783,34 +1969,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>19667</v>
+        <v>32404</v>
       </c>
       <c r="C39" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>monitor pompa klp gdg timur</t>
+          <t>pompa mobile on monitor dan kordinasi dgn sda berjalan trus semangat</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'klp', 'gdg', 'timur']</t>
+          <t>['pompa', 'mobile', 'on', 'monitor', 'dan', 'kordinasi', 'dgn', 'sda', 'berjalan', 'trus', 'semangat']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['pompa', 'mobile', 'on', 'monitor', 'dan', 'kordinasi', 'dengan', 'sda', 'berjalan', 'terus', 'semangat']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'klp', 'gdg', 'timur']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'klp', 'gdg', 'timur']</t>
+          <t>['pompa', 'mobile', 'on', 'monitor', 'kordinasi', 'sda', 'berjalan', 'semangat']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['pompa', 'mobile', 'on', 'monitor', 'kordinasi', 'sda', 'jalan', 'semangat']</t>
         </is>
       </c>
     </row>
@@ -1819,34 +2010,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>19668</v>
+        <v>32405</v>
       </c>
       <c r="C40" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>monitor pompa bgr</t>
+          <t>pantauan pompa pembersihan sampah dan penampungan monitor dan siaga selalu utk klp gdg cilincing koja</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'bgr']</t>
+          <t>['pantauan', 'pompa', 'pembersihan', 'sampah', 'dan', 'penampungan', 'monitor', 'dan', 'siaga', 'selalu', 'utk', 'klp', 'gdg', 'cilincing', 'koja']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['pantauan', 'pompa', 'pembersihan', 'sampah', 'dan', 'penampungan', 'monitor', 'dan', 'siaga', 'selalu', 'untuk', 'kelompok', 'gudang', 'cilincing', 'koja']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'bgr']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'bgr']</t>
+          <t>['pantauan', 'pompa', 'pembersihan', 'sampah', 'penampungan', 'monitor', 'siaga', 'kelompok', 'gudang', 'cilincing', 'koja']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['pantau', 'pompa', 'bersih', 'sampah', 'tampung', 'monitor', 'siaga', 'kelompok', 'gudang', 'cilincing', 'koja']</t>
         </is>
       </c>
     </row>
@@ -1855,34 +2051,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>19669</v>
+        <v>32406</v>
       </c>
       <c r="C41" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>monitor pompa mobile</t>
+          <t>perjuangan</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'mobile']</t>
+          <t>['perjuangan']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['perjuangan']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'mobile']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'mobile']</t>
+          <t>['perjuangan']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['juang']</t>
         </is>
       </c>
     </row>
@@ -1891,34 +2092,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>19670</v>
+        <v>32407</v>
       </c>
       <c r="C42" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>monitor pompa on trus dan surutkan trus cikoding kali kresek mulai turun stay safe all</t>
+          <t>kordinasi dan monitor genangan untuk segera disurutkan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'on', 'trus', 'dan', 'surutkan', 'trus', 'cikoding', 'kali', 'kresek', 'mulai', 'turun', 'stay', 'safe', 'all']</t>
+          <t>['kordinasi', 'dan', 'monitor', 'genangan', 'untuk', 'segera', 'disurutkan']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['kordinasi', 'dan', 'monitor', 'genangan', 'untuk', 'segera', 'disurutkan']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'on', 'trus', 'surutkan', 'trus', 'cikoding', 'kali', 'kresek', 'turun', 'stay', 'safe', 'all']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['monitor', 'pompa', 'on', 'trus', 'surut', 'trus', 'cikoding', 'kali', 'kresek', 'turun', 'stay', 'safe', 'all']</t>
+          <t>['kordinasi', 'monitor', 'genangan', 'disurutkan']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'monitor', 'genang', 'surut']</t>
         </is>
       </c>
     </row>
@@ -1927,34 +2133,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>19671</v>
+        <v>32408</v>
       </c>
       <c r="C43" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>gas terus tambahan pompa artha mulai deras nyedotnya</t>
+          <t>kordinasi banjir subuh semangat semoga ga banjir klp gdg cilincing koja dan seluruh jakarta dan kalau ada gena</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['gas', 'terus', 'tambahan', 'pompa', 'artha', 'mulai', 'deras', 'nyedotnya']</t>
+          <t>['kordinasi', 'banjir', 'subuh', 'semangat', 'semoga', 'ga', 'banjir', 'klp', 'gdg', 'cilincing', 'koja', 'dan', 'seluruh', 'jakarta', 'dan', 'kalau', 'ada', 'gena']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['kordinasi', 'banjir', 'subuh', 'semangat', 'semoga', 'tidak', 'banjir', 'kelompok', 'gudang', 'cilincing', 'koja', 'dan', 'seluruh', 'jakarta', 'dan', 'kalau', 'ada', 'gena']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['gas', 'tambahan', 'pompa', 'artha', 'deras', 'nyedotnya']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['gas', 'tambah', 'pompa', 'artha', 'deras', 'nyedotnya']</t>
+          <t>['kordinasi', 'banjir', 'subuh', 'semangat', 'semoga', 'banjir', 'kelompok', 'gudang', 'cilincing', 'koja', 'jakarta', 'gena']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'banjir', 'subuh', 'semangat', 'moga', 'banjir', 'kelompok', 'gudang', 'cilincing', 'koja', 'jakarta', 'gena']</t>
         </is>
       </c>
     </row>
@@ -1963,34 +2174,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>19672</v>
+        <v>32409</v>
       </c>
       <c r="C44" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>pompa mobile tambahan utk bantu surutkan air trus pg mulai surut yaaa</t>
+          <t>pompa apung dan posko biru siaga banjir</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'tambahan', 'utk', 'bantu', 'surutkan', 'air', 'trus', 'pg', 'mulai', 'surut', 'yaaa']</t>
+          <t>['pompa', 'apung', 'dan', 'posko', 'biru', 'siaga', 'banjir']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['pompa', 'apung', 'dan', 'posko', 'biru', 'siaga', 'banjir']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'tambahan', 'bantu', 'surutkan', 'air', 'trus', 'pg', 'surut', 'yaaa']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'tambah', 'bantu', 'surut', 'air', 'trus', 'pg', 'surut', 'yaaa']</t>
+          <t>['pompa', 'apung', 'posko', 'biru', 'siaga', 'banjir']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['pompa', 'apung', 'posko', 'biru', 'siaga', 'banjir']</t>
         </is>
       </c>
     </row>
@@ -1999,34 +2215,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>19673</v>
+        <v>32410</v>
       </c>
       <c r="C45" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>sidak pompa mobile di gdg hr ini krn kmren cuaca extreme kali tinggi dan bbrp luber dan genangan banjir</t>
+          <t>mobile pump lps dan lps surutkan trus smoga ga banjir</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['sidak', 'pompa', 'mobile', 'di', 'gdg', 'hr', 'ini', 'krn', 'kmren', 'cuaca', 'extreme', 'kali', 'tinggi', 'dan', 'bbrp', 'luber', 'dan', 'genangan', 'banjir']</t>
+          <t>['mobile', 'pump', 'lps', 'dan', 'lps', 'surutkan', 'trus', 'smoga', 'ga', 'banjir']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['mobile', 'pump', 'lps', 'dan', 'lps', 'surutkan', 'terus', 'semoga', 'tidak', 'banjir']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['sidak', 'pompa', 'mobile', 'gdg', 'hr', 'kmren', 'cuaca', 'extreme', 'kali', 'bbrp', 'luber', 'genangan', 'banjir']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['sidak', 'pompa', 'mobile', 'gdg', 'hr', 'kmren', 'cuaca', 'extreme', 'kali', 'bbrp', 'luber', 'genang', 'banjir']</t>
+          <t>['mobile', 'pump', 'lps', 'lps', 'surutkan', 'semoga', 'banjir']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['mobile', 'pump', 'lps', 'lps', 'surut', 'moga', 'banjir']</t>
         </is>
       </c>
     </row>
@@ -2035,34 +2256,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19674</v>
+        <v>32411</v>
       </c>
       <c r="C46" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">langsung cek ke tkp untuk pompa mobile ini sdh operasi di bbrp tempat di artha ada jg di vgi rw dan apung </t>
+          <t>monitor pompa apung untuk surutkan genangan yg ada langsung</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['langsung', 'cek', 'ke', 'tkp', 'untuk', 'pompa', 'mobile', 'ini', 'sdh', 'operasi', 'di', 'bbrp', 'tempat', 'di', 'artha', 'ada', 'jg', 'di', 'vgi', 'rw', 'dan', 'apung']</t>
+          <t>['monitor', 'pompa', 'apung', 'untuk', 'surutkan', 'genangan', 'yg', 'ada', 'langsung']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
+          <t>['monitor', 'pompa', 'apung', 'untuk', 'surutkan', 'genangan', 'yang', 'ada', 'langsung']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['langsung', 'cek', 'tkp', 'pompa', 'mobile', 'operasi', 'bbrp', 'artha', 'jg', 'vgi', 'rw', 'apung']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['langsung', 'cek', 'tkp', 'pompa', 'mobile', 'operasi', 'bbrp', 'artha', 'jg', 'vgi', 'rw', 'apung']</t>
+          <t>['monitor', 'pompa', 'apung', 'surutkan', 'genangan', 'langsung']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['monitor', 'pompa', 'apung', 'surut', 'genang', 'langsung']</t>
         </is>
       </c>
     </row>
@@ -2071,34 +2297,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19675</v>
+        <v>32412</v>
       </c>
       <c r="C47" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>semoga genangan cepat surut dan smua prangkat yg masih terbatas bisa menyurutkan genangan</t>
+          <t>monitor rupom jalan on dan standby untuk persiapan cuaca ekstreme jakut cilincing koja klp gdg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['semoga', 'genangan', 'cepat', 'surut', 'dan', 'smua', 'prangkat', 'yg', 'masih', 'terbatas', 'bisa', 'menyurutkan', 'genangan']</t>
+          <t>['monitor', 'rupom', 'jalan', 'on', 'dan', 'standby', 'untuk', 'persiapan', 'cuaca', 'ekstreme', 'jakut', 'cilincing', 'koja', 'klp', 'gdg']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['monitor', 'rupom', 'jalan', 'on', 'dan', 'standby', 'untuk', 'persiapan', 'cuaca', 'ekstreme', 'jakarta, utara', 'cilincing', 'koja', 'kelompok', 'gudang']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['semoga', 'genangan', 'cepat', 'surut', 'smua', 'prangkat', 'terbatas', 'menyurutkan', 'genangan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['moga', 'genang', 'cepat', 'surut', 'smua', 'prangkat', 'batas', 'surut', 'genang']</t>
+          <t>['monitor', 'rupom', 'jalan', 'on', 'standby', 'persiapan', 'cuaca', 'ekstreme', 'jakarta, utara', 'cilincing', 'koja', 'kelompok', 'gudang']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['monitor', 'rupom', 'jalan', 'on', 'standby', 'siap', 'cuaca', 'ekstreme', 'jakarta utara', 'cilincing', 'koja', 'kelompok', 'gudang']</t>
         </is>
       </c>
     </row>
@@ -2107,34 +2338,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>19676</v>
+        <v>32413</v>
       </c>
       <c r="C48" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>pompa mobile pompa apung rumah pompa semua dimaksimalkan</t>
+          <t>monitor pompa klp gdg timur</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'pompa', 'apung', 'rumah', 'pompa', 'semua', 'dimaksimalkan']</t>
+          <t>['monitor', 'pompa', 'klp', 'gdg', 'timur']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
+          <t>['monitor', 'pompa', 'kelompok', 'gudang', 'timur']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'pompa', 'apung', 'rumah', 'pompa', 'dimaksimalkan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['pompa', 'mobile', 'pompa', 'apung', 'rumah', 'pompa', 'maksimal']</t>
+          <t>['monitor', 'pompa', 'kelompok', 'gudang', 'timur']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['monitor', 'pompa', 'kelompok', 'gudang', 'timur']</t>
         </is>
       </c>
     </row>
@@ -2143,34 +2379,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>19677</v>
+        <v>32414</v>
       </c>
       <c r="C49" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>kordinasi di maksimalkan utk genangan cepat surut krn kmren malam sampai pagi cuaca extreme jakarta</t>
+          <t>monitor pompa bgr</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['kordinasi', 'di', 'maksimalkan', 'utk', 'genangan', 'cepat', 'surut', 'krn', 'kmren', 'malam', 'sampai', 'pagi', 'cuaca', 'extreme', 'jakarta']</t>
+          <t>['monitor', 'pompa', 'bgr']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['monitor', 'pompa', 'bgr']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['kordinasi', 'maksimalkan', 'genangan', 'cepat', 'surut', 'kmren', 'malam', 'pagi', 'cuaca', 'extreme', 'jakarta']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['kordinasi', 'maksimal', 'genang', 'cepat', 'surut', 'kmren', 'malam', 'pagi', 'cuaca', 'extreme', 'jakarta']</t>
+          <t>['monitor', 'pompa', 'bgr']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['monitor', 'pompa', 'bgr']</t>
         </is>
       </c>
     </row>
@@ -2179,34 +2420,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>19678</v>
+        <v>32415</v>
       </c>
       <c r="C50" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>memperingati hari kanker anak jangan menyerah nikmati hariharimu dengan senyum dan tetaplah bersemangat</t>
+          <t>monitor pompa mobile</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['memperingati', 'hari', 'kanker', 'anak', 'jangan', 'menyerah', 'nikmati', 'hariharimu', 'dengan', 'senyum', 'dan', 'tetaplah', 'bersemangat']</t>
+          <t>['monitor', 'pompa', 'mobile']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['monitor', 'pompa', 'mobile']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['memperingati', 'kanker', 'anak', 'menyerah', 'nikmati', 'hariharimu', 'senyum', 'tetaplah', 'bersemangat']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['ingat', 'kanker', 'anak', 'serah', 'nikmat', 'hariharimu', 'senyum', 'tetap', 'semangat']</t>
+          <t>['monitor', 'pompa', 'mobile']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['monitor', 'pompa', 'mobile']</t>
         </is>
       </c>
     </row>
@@ -2215,34 +2461,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>19679</v>
+        <v>32416</v>
       </c>
       <c r="C51" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>latepost mendengarkan ahli tata kota dalam pembahasan raperda rdtr dprd dki jakarta</t>
+          <t>monitor pompa on trus dan surutkan trus cikoding kali kresek mulai turun stay safe all</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['latepost', 'mendengarkan', 'ahli', 'tata', 'kota', 'dalam', 'pembahasan', 'raperda', 'rdtr', 'dprd', 'dki', 'jakarta']</t>
+          <t>['monitor', 'pompa', 'on', 'trus', 'dan', 'surutkan', 'trus', 'cikoding', 'kali', 'kresek', 'mulai', 'turun', 'stay', 'safe', 'all']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['monitor', 'pompa', 'on', 'terus', 'dan', 'surutkan', 'terus', 'cikoding', 'kali', 'kresek', 'mulai', 'turun', 'stay', 'aman', 'all']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['latepost', 'mendengarkan', 'ahli', 'tata', 'kota', 'pembahasan', 'raperda', 'rdtr', 'dprd', 'dki', 'jakarta']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['latepost', 'dengar', 'ahli', 'tata', 'kota', 'bahas', 'raperda', 'rdtr', 'dprd', 'dki', 'jakarta']</t>
+          <t>['monitor', 'pompa', 'on', 'surutkan', 'cikoding', 'kali', 'kresek', 'turun', 'stay', 'aman', 'all']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['monitor', 'pompa', 'on', 'surut', 'cikoding', 'kali', 'kresek', 'turun', 'stay', 'aman', 'all']</t>
         </is>
       </c>
     </row>
@@ -2251,34 +2502,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>19680</v>
+        <v>32417</v>
       </c>
       <c r="C52" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>kordinasi pompa waduk kolakan di klp gdg cilincing koja mulai hujan besar</t>
+          <t>gas terus tambahan pompa artha mulai deras nyedotnya</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['kordinasi', 'pompa', 'waduk', 'kolakan', 'di', 'klp', 'gdg', 'cilincing', 'koja', 'mulai', 'hujan', 'besar']</t>
+          <t>['gas', 'terus', 'tambahan', 'pompa', 'artha', 'mulai', 'deras', 'nyedotnya']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['gas', 'terus', 'tambahan', 'pompa', 'artha', 'mulai', 'deras', 'nyedotnya']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['kordinasi', 'pompa', 'waduk', 'kolakan', 'klp', 'gdg', 'cilincing', 'koja', 'hujan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['kordinasi', 'pompa', 'waduk', 'kola', 'klp', 'gdg', 'cilincing', 'koja', 'hujan']</t>
+          <t>['gas', 'tambahan', 'pompa', 'artha', 'deras', 'nyedotnya']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['gas', 'tambah', 'pompa', 'artha', 'deras', 'nyedotnya']</t>
         </is>
       </c>
     </row>
@@ -2287,34 +2543,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>19681</v>
+        <v>32418</v>
       </c>
       <c r="C53" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>dapet angpao dari pa ahok hehehehe biar cepet merit tadi pas bersama perjuangan</t>
+          <t>pompa mobile tambahan utk bantu surutkan air trus pg mulai surut yaaa</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['dapet', 'angpao', 'dari', 'pa', 'ahok', 'hehehehe', 'biar', 'cepet', 'merit', 'tadi', 'pas', 'bersama', 'perjuangan']</t>
+          <t>['pompa', 'mobile', 'tambahan', 'utk', 'bantu', 'surutkan', 'air', 'trus', 'pg', 'mulai', 'surut', 'yaaa']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['pompa', 'mobile', 'tambahan', 'untuk', 'bantu', 'surutkan', 'air', 'terus', 'pergi', 'mulai', 'surut', 'ya']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['dapet', 'angpao', 'pa', 'ahok', 'hehehehe', 'cepet', 'merit', 'pas', 'perjuangan']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['dapet', 'angpao', 'pa', 'ahok', 'hehehehe', 'cepet', 'rit', 'pas', 'juang']</t>
+          <t>['pompa', 'mobile', 'tambahan', 'bantu', 'surutkan', 'air', 'pergi', 'surut']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['pompa', 'mobile', 'tambah', 'bantu', 'surut', 'air', 'pergi', 'surut']</t>
         </is>
       </c>
     </row>
@@ -2323,34 +2584,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>19682</v>
+        <v>32419</v>
       </c>
       <c r="C54" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>selamat tahun baru imlek gong xi fa cai</t>
+          <t>sidak pompa mobile di gdg hr ini krn kmren cuaca extreme kali tinggi dan bbrp luber dan genangan banjir</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['selamat', 'tahun', 'baru', 'imlek', 'gong', 'xi', 'fa', 'cai']</t>
+          <t>['sidak', 'pompa', 'mobile', 'di', 'gdg', 'hr', 'ini', 'krn', 'kmren', 'cuaca', 'extreme', 'kali', 'tinggi', 'dan', 'bbrp', 'luber', 'dan', 'genangan', 'banjir']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['inspeksi, mendadak', 'pompa', 'mobile', 'di', 'gudang', 'hari', 'ini', 'karena', 'kemarin', 'cuaca', 'extreme', 'kali', 'tinggi', 'dan', 'beberapa', 'luber', 'dan', 'genangan', 'banjir']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'gong', 'xi', 'fa', 'cai']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['selamat', 'imlek', 'gong', 'xi', 'fa', 'cai']</t>
+          <t>['inspeksi, mendadak', 'pompa', 'mobile', 'gudang', 'kemarin', 'cuaca', 'extreme', 'kali', 'luber', 'genangan', 'banjir']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['inspeksi dadak', 'pompa', 'mobile', 'gudang', 'kemarin', 'cuaca', 'extreme', 'kali', 'luber', 'genang', 'banjir']</t>
         </is>
       </c>
     </row>
@@ -2359,34 +2625,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>19683</v>
+        <v>32420</v>
       </c>
       <c r="C55" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jakarta tahun baru imlek versi tina toon di tengah pandemi instagram idnchannel </t>
+          <t xml:space="preserve">langsung cek ke tkp untuk pompa mobile ini sdh operasi di bbrp tempat di artha ada jg di vgi rw dan apung </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'jakarta', 'tahun', 'baru', 'imlek', 'versi', 'tina', 'toon', 'di', 'tengah', 'pandemi', 'instagram', 'idnchannel']</t>
+          <t>['langsung', 'cek', 'ke', 'tkp', 'untuk', 'pompa', 'mobile', 'ini', 'sdh', 'operasi', 'di', 'bbrp', 'tempat', 'di', 'artha', 'ada', 'jg', 'di', 'vgi', 'rw', 'dan', 'apung']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['langsung', 'cek', 'ke', 'tempat, kejadian, perkara', 'untuk', 'pompa', 'mobile', 'ini', 'sudah', 'operasi', 'di', 'beberapa', 'tempat', 'di', 'artha', 'ada', 'juga', 'di', 'vgi', 'rukun, warga', 'dan', 'apung']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['jakarta', 'imlek', 'versi', 'tina', 'toon', 'pandemi', 'instagram', 'idnchannel']</t>
+          <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['jakarta', 'imlek', 'versi', 'tina', 'toon', 'pandemi', 'instagram', 'idnchannel']</t>
+          <t>['langsung', 'cek', 'tempat, kejadian, perkara', 'pompa', 'mobile', 'operasi', 'artha', 'vgi', 'rukun, warga', 'apung']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['langsung', 'cek', 'tempat jadi perkara', 'pompa', 'mobile', 'operasi', 'artha', 'vgi', 'rukun warga', 'apung']</t>
         </is>
       </c>
     </row>
@@ -2395,30 +2666,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>19684</v>
+        <v>32421</v>
       </c>
       <c r="C56" t="n">
-        <v>238</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>375</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>semoga genangan cepat surut dan smua prangkat yg masih terbatas bisa menyurutkan genangan</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['semoga', 'genangan', 'cepat', 'surut', 'dan', 'smua', 'prangkat', 'yg', 'masih', 'terbatas', 'bisa', 'menyurutkan', 'genangan']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['semoga', 'genangan', 'cepat', 'surut', 'dan', 'semua', 'prangkat', 'yang', 'masih', 'terbatas', 'bisa', 'menyurutkan', 'genangan']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['semoga', 'genangan', 'cepat', 'surut', 'prangkat', 'terbatas', 'menyurutkan', 'genangan']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['moga', 'genang', 'cepat', 'surut', 'prangkat', 'batas', 'surut', 'genang']</t>
         </is>
       </c>
     </row>
@@ -2427,34 +2707,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>19685</v>
+        <v>32422</v>
       </c>
       <c r="C57" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">tindak lanjut laporan warga jalanan rusak dan bolong di pg dan kgt klp gdg akibat hujan dan genangan trims </t>
+          <t>pompa mobile pompa apung rumah pompa semua dimaksimalkan</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['tindak', 'lanjut', 'laporan', 'warga', 'jalanan', 'rusak', 'dan', 'bolong', 'di', 'pg', 'dan', 'kgt', 'klp', 'gdg', 'akibat', 'hujan', 'dan', 'genangan', 'trims']</t>
+          <t>['pompa', 'mobile', 'pompa', 'apung', 'rumah', 'pompa', 'semua', 'dimaksimalkan']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['pompa', 'mobile', 'pompa', 'apung', 'rumah', 'pompa', 'semua', 'dimaksimalkan']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['tindak', 'laporan', 'warga', 'jalanan', 'rusak', 'bolong', 'pg', 'kgt', 'klp', 'gdg', 'akibat', 'hujan', 'genangan', 'trims']</t>
+          <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['tindak', 'lapor', 'warga', 'jalan', 'rusak', 'bolong', 'pg', 'kgt', 'klp', 'gdg', 'akibat', 'hujan', 'genang', 'trims']</t>
+          <t>['pompa', 'mobile', 'pompa', 'apung', 'rumah', 'pompa', 'dimaksimalkan']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['pompa', 'mobile', 'pompa', 'apung', 'rumah', 'pompa', 'maksimal']</t>
         </is>
       </c>
     </row>
@@ -2463,34 +2748,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>19686</v>
+        <v>32423</v>
       </c>
       <c r="C58" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>tindak lanjut laporan warga jalanan rusak di kelapa gading akibat hujan dan genangan air kmren yg lain on progres</t>
+          <t>kordinasi di maksimalkan utk genangan cepat surut krn kmren malam sampai pagi cuaca extreme jakarta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['tindak', 'lanjut', 'laporan', 'warga', 'jalanan', 'rusak', 'di', 'kelapa', 'gading', 'akibat', 'hujan', 'dan', 'genangan', 'air', 'kmren', 'yg', 'lain', 'on', 'progres']</t>
+          <t>['kordinasi', 'di', 'maksimalkan', 'utk', 'genangan', 'cepat', 'surut', 'krn', 'kmren', 'malam', 'sampai', 'pagi', 'cuaca', 'extreme', 'jakarta']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['kordinasi', 'di', 'maksimalkan', 'untuk', 'genangan', 'cepat', 'surut', 'karena', 'kemarin', 'malam', 'sampai', 'pagi', 'cuaca', 'extreme', 'jakarta']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['tindak', 'laporan', 'warga', 'jalanan', 'rusak', 'kelapa', 'gading', 'akibat', 'hujan', 'genangan', 'air', 'kmren', 'on', 'progres']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['tindak', 'lapor', 'warga', 'jalan', 'rusak', 'kelapa', 'gading', 'akibat', 'hujan', 'genang', 'air', 'kmren', 'on', 'progres']</t>
+          <t>['kordinasi', 'maksimalkan', 'genangan', 'cepat', 'surut', 'kemarin', 'malam', 'pagi', 'cuaca', 'extreme', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'maksimal', 'genang', 'cepat', 'surut', 'kemarin', 'malam', 'pagi', 'cuaca', 'extreme', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2499,34 +2789,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>19687</v>
+        <v>32424</v>
       </c>
       <c r="C59" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>setiap hujan kordinasi pompa waduk olakan dan saluran di klp gdg cilincing koja dan skitarnya</t>
+          <t>memperingati hari kanker anak jangan menyerah nikmati hariharimu dengan senyum dan tetaplah bersemangat</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['setiap', 'hujan', 'kordinasi', 'pompa', 'waduk', 'olakan', 'dan', 'saluran', 'di', 'klp', 'gdg', 'cilincing', 'koja', 'dan', 'skitarnya']</t>
+          <t>['memperingati', 'hari', 'kanker', 'anak', 'jangan', 'menyerah', 'nikmati', 'hariharimu', 'dengan', 'senyum', 'dan', 'tetaplah', 'bersemangat']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['memperingati', 'hari', 'kanker', 'anak', 'jangan', 'menyerah', 'nikmati', 'hari, harimu', 'dengan', 'senyum', 'dan', 'tetaplah', 'bersemangat']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['hujan', 'kordinasi', 'pompa', 'waduk', 'olakan', 'saluran', 'klp', 'gdg', 'cilincing', 'koja', 'skitarnya']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['hujan', 'kordinasi', 'pompa', 'waduk', 'olak', 'salur', 'klp', 'gdg', 'cilincing', 'koja', 'skitarnya']</t>
+          <t>['memperingati', 'kanker', 'anak', 'menyerah', 'nikmati', 'hari, harimu', 'senyum', 'tetaplah', 'bersemangat']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['ingat', 'kanker', 'anak', 'serah', 'nikmat', 'hari hari', 'senyum', 'tetap', 'semangat']</t>
         </is>
       </c>
     </row>
@@ -2535,34 +2830,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>19688</v>
+        <v>32425</v>
       </c>
       <c r="C60" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>untuk jalanan di kelapa gading yang banyak bolong dan rusak sedang di kordinasikan dengan kecamatan dan bina marga</t>
+          <t>latepost mendengarkan ahli tata kota dalam pembahasan raperda rdtr dprd dki jakarta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['untuk', 'jalanan', 'di', 'kelapa', 'gading', 'yang', 'banyak', 'bolong', 'dan', 'rusak', 'sedang', 'di', 'kordinasikan', 'dengan', 'kecamatan', 'dan', 'bina', 'marga']</t>
+          <t>['latepost', 'mendengarkan', 'ahli', 'tata', 'kota', 'dalam', 'pembahasan', 'raperda', 'rdtr', 'dprd', 'dki', 'jakarta']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['latepost', 'mendengarkan', 'ahli', 'tata', 'kota', 'dalam', 'pembahasan', 'raperda', 'rdtr', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'jakarta']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['jalanan', 'kelapa', 'gading', 'bolong', 'rusak', 'kordinasikan', 'kecamatan', 'bina', 'marga']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['jalan', 'kelapa', 'gading', 'bolong', 'rusak', 'kordinasikan', 'camat', 'bina', 'marga']</t>
+          <t>['latepost', 'mendengarkan', 'ahli', 'tata', 'kota', 'pembahasan', 'raperda', 'rdtr', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['latepost', 'dengar', 'ahli', 'tata', 'kota', 'bahas', 'raperda', 'rdtr', 'dewan wakil rakyat daerah', 'daerah khusus ibukota', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2571,34 +2871,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>19689</v>
+        <v>32426</v>
       </c>
       <c r="C61" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>sejumlah kegiatan sda cilincing koja kelapa gading dalam penanggulangan banjir di wilayah kerukan kali pembersih</t>
+          <t>kordinasi pompa waduk kolakan di klp gdg cilincing koja mulai hujan besar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['sejumlah', 'kegiatan', 'sda', 'cilincing', 'koja', 'kelapa', 'gading', 'dalam', 'penanggulangan', 'banjir', 'di', 'wilayah', 'kerukan', 'kali', 'pembersih']</t>
+          <t>['kordinasi', 'pompa', 'waduk', 'kolakan', 'di', 'klp', 'gdg', 'cilincing', 'koja', 'mulai', 'hujan', 'besar']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kordinasi', 'pompa', 'waduk', 'kolakan', 'di', 'kelompok', 'gudang', 'cilincing', 'koja', 'mulai', 'hujan', 'besar']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['kegiatan', 'sda', 'cilincing', 'koja', 'kelapa', 'gading', 'penanggulangan', 'banjir', 'wilayah', 'kerukan', 'kali', 'pembersih']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['giat', 'sda', 'cilincing', 'koja', 'kelapa', 'gading', 'tanggulang', 'banjir', 'wilayah', 'kerukan', 'kali', 'bersih']</t>
+          <t>['kordinasi', 'pompa', 'waduk', 'kolakan', 'kelompok', 'gudang', 'cilincing', 'koja', 'hujan']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'pompa', 'waduk', 'kola', 'kelompok', 'gudang', 'cilincing', 'koja', 'hujan']</t>
         </is>
       </c>
     </row>
@@ -2607,34 +2912,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>19690</v>
+        <v>32427</v>
       </c>
       <c r="C62" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt jakarta sikap fraksi pdi perjuangan dki jakarta memutuskan menolak usulan perubahan rpjmd karena patut diduga untuk me</t>
+          <t>dapet angpao dari pa ahok hehehehe biar cepet merit tadi pas bersama perjuangan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'jakarta', 'sikap', 'fraksi', 'pdi', 'perjuangan', 'dki', 'jakarta', 'memutuskan', 'menolak', 'usulan', 'perubahan', 'rpjmd', 'karena', 'patut', 'diduga', 'untuk', 'me']</t>
+          <t>['dapet', 'angpao', 'dari', 'pa', 'ahok', 'hehehehe', 'biar', 'cepet', 'merit', 'tadi', 'pas', 'bersama', 'perjuangan']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['dapat', 'angpao', 'dari', 'pak', 'ahok', 'hehe', 'biar', 'cepat', 'menikah', 'tadi', 'pas', 'bersama', 'perjuangan']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['jakarta', 'sikap', 'fraksi', 'pdi', 'perjuangan', 'dki', 'jakarta', 'memutuskan', 'menolak', 'usulan', 'perubahan', 'rpjmd', 'patut', 'diduga', 'me']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['jakarta', 'sikap', 'fraksi', 'pdi', 'juang', 'dki', 'jakarta', 'putus', 'tolak', 'usul', 'ubah', 'rpjmd', 'patut', 'duga', 'me']</t>
+          <t>['angpao', 'ahok', 'cepat', 'menikah', 'pas', 'perjuangan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['angpao', 'ahok', 'cepat', 'meni', 'pas', 'juang']</t>
         </is>
       </c>
     </row>
@@ -2643,34 +2953,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>19691</v>
+        <v>32428</v>
       </c>
       <c r="C63" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>selamat hari pers nasional bangkit dari pandemi jakarta gerbang pembangunan ekonomi bersama pers sebagai akselea</t>
+          <t>selamat tahun baru imlek gong xi fa cai</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['selamat', 'hari', 'pers', 'nasional', 'bangkit', 'dari', 'pandemi', 'jakarta', 'gerbang', 'pembangunan', 'ekonomi', 'bersama', 'pers', 'sebagai', 'akselea']</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['selamat', 'tahun', 'baru', 'imlek', 'gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['selamat', 'pers', 'nasional', 'bangkit', 'pandemi', 'jakarta', 'gerbang', 'pembangunan', 'ekonomi', 'pers', 'akselea']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['selamat', 'pers', 'nasional', 'bangkit', 'pandemi', 'jakarta', 'gerbang', 'bangun', 'ekonomi', 'pers', 'akselea']</t>
+          <t>['selamat', 'imlek', 'gong', 'xi', 'fa', 'cai']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['selamat', 'imlek', 'gong', 'xi', 'fa', 'cai']</t>
         </is>
       </c>
     </row>
@@ -2679,34 +2994,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>19692</v>
+        <v>32429</v>
       </c>
       <c r="C64" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>pantauan tinggi pintu air dan pompa pagi ini</t>
+          <t xml:space="preserve">rt jakarta tahun baru imlek versi tina toon di tengah pandemi instagram idnchannel </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['pantauan', 'tinggi', 'pintu', 'air', 'dan', 'pompa', 'pagi', 'ini']</t>
+          <t>['rt', 'jakarta', 'tahun', 'baru', 'imlek', 'versi', 'tina', 'toon', 'di', 'tengah', 'pandemi', 'instagram', 'idnchannel']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'tahun', 'baru', 'imlek', 'versi', 'tina', 'toon', 'di', 'tengah', 'pandemi', 'instagram', 'idnchannel']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['pantauan', 'pintu', 'air', 'pompa', 'pagi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['pantau', 'pintu', 'air', 'pompa', 'pagi']</t>
+          <t>['jakarta', 'imlek', 'versi', 'tina', 'toon', 'pandemi', 'instagram', 'idnchannel']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['jakarta', 'imlek', 'versi', 'tina', 'toon', 'pandemi', 'instagram', 'idnchannel']</t>
         </is>
       </c>
     </row>
@@ -2715,34 +3035,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>19693</v>
+        <v>32430</v>
       </c>
       <c r="C65" t="n">
-        <v>238</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>pompa jalan utk menyurutkan genangan dan penampungan</t>
-        </is>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['pompa', 'jalan', 'utk', 'menyurutkan', 'genangan', 'dan', 'penampungan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['pompa', 'jalan', 'menyurutkan', 'genangan', 'penampungan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['pompa', 'jalan', 'surut', 'genang', 'tampung']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2751,34 +3072,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>19694</v>
+        <v>32431</v>
       </c>
       <c r="C66" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>penampungan jg sdh ditambahkan agar air ga stuck di sal phb semoga ga banjir dan genangan cepat surut</t>
+          <t xml:space="preserve">tindak lanjut laporan warga jalanan rusak dan bolong di pg dan kgt klp gdg akibat hujan dan genangan trims </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['penampungan', 'jg', 'sdh', 'ditambahkan', 'agar', 'air', 'ga', 'stuck', 'di', 'sal', 'phb', 'semoga', 'ga', 'banjir', 'dan', 'genangan', 'cepat', 'surut']</t>
+          <t>['tindak', 'lanjut', 'laporan', 'warga', 'jalanan', 'rusak', 'dan', 'bolong', 'di', 'pg', 'dan', 'kgt', 'klp', 'gdg', 'akibat', 'hujan', 'dan', 'genangan', 'trims']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tindak', 'lanjut', 'laporan', 'warga', 'jalanan', 'rusak', 'dan', 'bolong', 'di', 'pergi', 'dan', 'kgt', 'kelompok', 'gudang', 'akibat', 'hujan', 'dan', 'genangan', 'terima, kasih']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['penampungan', 'jg', 'air', 'stuck', 'sal', 'phb', 'semoga', 'banjir', 'genangan', 'cepat', 'surut']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['tampung', 'jg', 'air', 'stuck', 'sal', 'phb', 'moga', 'banjir', 'genang', 'cepat', 'surut']</t>
+          <t>['tindak', 'laporan', 'warga', 'jalanan', 'rusak', 'bolong', 'pergi', 'kgt', 'kelompok', 'gudang', 'akibat', 'hujan', 'genangan', 'terima, kasih']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['tindak', 'lapor', 'warga', 'jalan', 'rusak', 'bolong', 'pergi', 'kgt', 'kelompok', 'gudang', 'akibat', 'hujan', 'genang', 'terima kasih']</t>
         </is>
       </c>
     </row>
@@ -2787,34 +3113,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>19695</v>
+        <v>32432</v>
       </c>
       <c r="C67" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>laut posisi pasang mengakibatkan sulitnya aliran air deras ke laut tp kordinasi dgn sda utk pompa maksimal dan pomp</t>
+          <t>tindak lanjut laporan warga jalanan rusak di kelapa gading akibat hujan dan genangan air kmren yg lain on progres</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['laut', 'posisi', 'pasang', 'mengakibatkan', 'sulitnya', 'aliran', 'air', 'deras', 'ke', 'laut', 'tp', 'kordinasi', 'dgn', 'sda', 'utk', 'pompa', 'maksimal', 'dan', 'pomp']</t>
+          <t>['tindak', 'lanjut', 'laporan', 'warga', 'jalanan', 'rusak', 'di', 'kelapa', 'gading', 'akibat', 'hujan', 'dan', 'genangan', 'air', 'kmren', 'yg', 'lain', 'on', 'progres']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['tindak', 'lanjut', 'laporan', 'warga', 'jalanan', 'rusak', 'di', 'kelapa', 'gading', 'akibat', 'hujan', 'dan', 'genangan', 'air', 'kemarin', 'yang', 'lain', 'on', 'progres']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['laut', 'posisi', 'pasang', 'mengakibatkan', 'sulitnya', 'aliran', 'air', 'deras', 'laut', 'tp', 'kordinasi', 'sda', 'pompa', 'maksimal', 'pomp']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['laut', 'posisi', 'pasang', 'akibat', 'sulit', 'alir', 'air', 'deras', 'laut', 'tp', 'kordinasi', 'sda', 'pompa', 'maksimal', 'pomp']</t>
+          <t>['tindak', 'laporan', 'warga', 'jalanan', 'rusak', 'kelapa', 'gading', 'akibat', 'hujan', 'genangan', 'air', 'kemarin', 'on', 'progres']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['tindak', 'lapor', 'warga', 'jalan', 'rusak', 'kelapa', 'gading', 'akibat', 'hujan', 'genang', 'air', 'kemarin', 'on', 'progres']</t>
         </is>
       </c>
     </row>
@@ -2823,34 +3154,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19696</v>
+        <v>32433</v>
       </c>
       <c r="C68" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>kordinasi pantau banjir klp gading cilincing koja jakut krn hujan deras dan potensi kiriman air dr timur</t>
+          <t>setiap hujan kordinasi pompa waduk olakan dan saluran di klp gdg cilincing koja dan skitarnya</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['kordinasi', 'pantau', 'banjir', 'klp', 'gading', 'cilincing', 'koja', 'jakut', 'krn', 'hujan', 'deras', 'dan', 'potensi', 'kiriman', 'air', 'dr', 'timur']</t>
+          <t>['setiap', 'hujan', 'kordinasi', 'pompa', 'waduk', 'olakan', 'dan', 'saluran', 'di', 'klp', 'gdg', 'cilincing', 'koja', 'dan', 'skitarnya']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['setiap', 'hujan', 'kordinasi', 'pompa', 'waduk', 'olakan', 'dan', 'saluran', 'di', 'kelompok', 'gudang', 'cilincing', 'koja', 'dan', 'skitarnya']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['kordinasi', 'pantau', 'banjir', 'klp', 'gading', 'cilincing', 'koja', 'jakut', 'hujan', 'deras', 'potensi', 'kiriman', 'air', 'dr', 'timur']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['kordinasi', 'pantau', 'banjir', 'klp', 'gading', 'cilincing', 'koja', 'jakut', 'hujan', 'deras', 'potensi', 'kirim', 'air', 'dr', 'timur']</t>
+          <t>['hujan', 'kordinasi', 'pompa', 'waduk', 'olakan', 'saluran', 'kelompok', 'gudang', 'cilincing', 'koja', 'skitarnya']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['hujan', 'kordinasi', 'pompa', 'waduk', 'olak', 'salur', 'kelompok', 'gudang', 'cilincing', 'koja', 'skitarnya']</t>
         </is>
       </c>
     </row>
@@ -2859,34 +3195,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>19697</v>
+        <v>32434</v>
       </c>
       <c r="C69" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>memperingati hari kanker sedunia jangan pernah menyerah yaakinlah bahwa setiap penyakit itu ada obatnya dan tetap</t>
+          <t>untuk jalanan di kelapa gading yang banyak bolong dan rusak sedang di kordinasikan dengan kecamatan dan bina marga</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['memperingati', 'hari', 'kanker', 'sedunia', 'jangan', 'pernah', 'menyerah', 'yaakinlah', 'bahwa', 'setiap', 'penyakit', 'itu', 'ada', 'obatnya', 'dan', 'tetap']</t>
+          <t>['untuk', 'jalanan', 'di', 'kelapa', 'gading', 'yang', 'banyak', 'bolong', 'dan', 'rusak', 'sedang', 'di', 'kordinasikan', 'dengan', 'kecamatan', 'dan', 'bina', 'marga']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['untuk', 'jalanan', 'di', 'kelapa', 'gading', 'yang', 'banyak', 'bolong', 'dan', 'rusak', 'sedang', 'di', 'kordinasikan', 'dengan', 'kecamatan', 'dan', 'bina', 'marga']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['memperingati', 'kanker', 'sedunia', 'menyerah', 'yaakinlah', 'penyakit', 'obatnya']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['ingat', 'kanker', 'dunia', 'serah', 'yaakinlah', 'sakit', 'obat']</t>
+          <t>['jalanan', 'kelapa', 'gading', 'bolong', 'rusak', 'kordinasikan', 'kecamatan', 'bina', 'marga']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['jalan', 'kelapa', 'gading', 'bolong', 'rusak', 'kordinasikan', 'camat', 'bina', 'marga']</t>
         </is>
       </c>
     </row>
@@ -2895,34 +3236,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>19698</v>
+        <v>32435</v>
       </c>
       <c r="C70" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>hai guys di video kali ini aku mau share kondisi aku yang positif covid tapi cuma hari penasaran seperti apa yu</t>
+          <t>sejumlah kegiatan sda cilincing koja kelapa gading dalam penanggulangan banjir di wilayah kerukan kali pembersih</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['hai', 'guys', 'di', 'video', 'kali', 'ini', 'aku', 'mau', 'share', 'kondisi', 'aku', 'yang', 'positif', 'covid', 'tapi', 'cuma', 'hari', 'penasaran', 'seperti', 'apa', 'yu']</t>
+          <t>['sejumlah', 'kegiatan', 'sda', 'cilincing', 'koja', 'kelapa', 'gading', 'dalam', 'penanggulangan', 'banjir', 'di', 'wilayah', 'kerukan', 'kali', 'pembersih']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['sejumlah', 'kegiatan', 'sda', 'cilincing', 'koja', 'kelapa', 'gading', 'dalam', 'penanggulangan', 'banjir', 'di', 'wilayah', 'kerukan', 'kali', 'pembersih']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['hai', 'guys', 'video', 'kali', 'share', 'kondisi', 'positif', 'covid', 'penasaran', 'yu']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['hai', 'guys', 'video', 'kali', 'share', 'kondisi', 'positif', 'covid', 'penasaran', 'yu']</t>
+          <t>['kegiatan', 'sda', 'cilincing', 'koja', 'kelapa', 'gading', 'penanggulangan', 'banjir', 'wilayah', 'kerukan', 'kali', 'pembersih']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['giat', 'sda', 'cilincing', 'koja', 'kelapa', 'gading', 'tanggulang', 'banjir', 'wilayah', 'kerukan', 'kali', 'bersih']</t>
         </is>
       </c>
     </row>
@@ -2931,34 +3277,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>19699</v>
+        <v>32436</v>
       </c>
       <c r="C71" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>mengikuti pelaksanaan musrenbang tingkat kecamatan tahun di wilayah kelurahan kalibaru dan kelapa gading barat</t>
+          <t>rt jakarta sikap fraksi pdi perjuangan dki jakarta memutuskan menolak usulan perubahan rpjmd karena patut diduga untuk me</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['mengikuti', 'pelaksanaan', 'musrenbang', 'tingkat', 'kecamatan', 'tahun', 'di', 'wilayah', 'kelurahan', 'kalibaru', 'dan', 'kelapa', 'gading', 'barat']</t>
+          <t>['rt', 'jakarta', 'sikap', 'fraksi', 'pdi', 'perjuangan', 'dki', 'jakarta', 'memutuskan', 'menolak', 'usulan', 'perubahan', 'rpjmd', 'karena', 'patut', 'diduga', 'untuk', 'me']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'sikap', 'fraksi', 'partai, demokrasi, indonesia', 'perjuangan', 'daerah, khusus, ibukota', 'jakarta', 'memutuskan', 'menolak', 'usulan', 'perubahan', 'rpjmd', 'karena', 'patut', 'diduga', 'untuk', 'me']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['mengikuti', 'pelaksanaan', 'musrenbang', 'tingkat', 'kecamatan', 'wilayah', 'kelurahan', 'kalibaru', 'kelapa', 'gading', 'barat']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['ikut', 'laksana', 'musrenbang', 'tingkat', 'camat', 'wilayah', 'lurah', 'kalibaru', 'kelapa', 'gading', 'barat']</t>
+          <t>['jakarta', 'sikap', 'fraksi', 'partai, demokrasi, indonesia', 'perjuangan', 'daerah, khusus, ibukota', 'jakarta', 'memutuskan', 'menolak', 'usulan', 'perubahan', 'rpjmd', 'patut', 'diduga', 'me']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['jakarta', 'sikap', 'fraksi', 'partai demokrasi indonesia', 'juang', 'daerah khusus ibukota', 'jakarta', 'putus', 'tolak', 'usul', 'ubah', 'rpjmd', 'patut', 'duga', 'me']</t>
         </is>
       </c>
     </row>
@@ -2967,34 +3318,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>19700</v>
+        <v>32437</v>
       </c>
       <c r="C72" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>yuhuuu setlah kordinasi dan tinjauan pompa klp gdg timur beres trims jg untuk jajaran sudin tata air jakut</t>
+          <t>selamat hari pers nasional bangkit dari pandemi jakarta gerbang pembangunan ekonomi bersama pers sebagai akselea</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['yuhuuu', 'setlah', 'kordinasi', 'dan', 'tinjauan', 'pompa', 'klp', 'gdg', 'timur', 'beres', 'trims', 'jg', 'untuk', 'jajaran', 'sudin', 'tata', 'air', 'jakut']</t>
+          <t>['selamat', 'hari', 'pers', 'nasional', 'bangkit', 'dari', 'pandemi', 'jakarta', 'gerbang', 'pembangunan', 'ekonomi', 'bersama', 'pers', 'sebagai', 'akselea']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['selamat', 'hari', 'pers', 'nasional', 'bangkit', 'dari', 'pandemi', 'jakarta', 'gerbang', 'pembangunan', 'ekonomi', 'bersama', 'pers', 'sebagai', 'akselea']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['yuhuuu', 'setlah', 'kordinasi', 'tinjauan', 'pompa', 'klp', 'gdg', 'timur', 'beres', 'trims', 'jg', 'jajaran', 'sudin', 'tata', 'air', 'jakut']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['yuhuuu', 'set', 'kordinasi', 'tinjau', 'pompa', 'klp', 'gdg', 'timur', 'beres', 'trims', 'jg', 'jajar', 'sudin', 'tata', 'air', 'jakut']</t>
+          <t>['selamat', 'pers', 'nasional', 'bangkit', 'pandemi', 'jakarta', 'gerbang', 'pembangunan', 'ekonomi', 'pers', 'akselea']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['selamat', 'pers', 'nasional', 'bangkit', 'pandemi', 'jakarta', 'gerbang', 'bangun', 'ekonomi', 'pers', 'akselea']</t>
         </is>
       </c>
     </row>
@@ -3003,34 +3359,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>19701</v>
+        <v>32438</v>
       </c>
       <c r="C73" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>rapat bapemperda dprd provinsi dki jakarta bersama komisikomisi melalui zoom online tentang revisi perda rdtr</t>
+          <t>pantauan tinggi pintu air dan pompa pagi ini</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['rapat', 'bapemperda', 'dprd', 'provinsi', 'dki', 'jakarta', 'bersama', 'komisikomisi', 'melalui', 'zoom', 'online', 'tentang', 'revisi', 'perda', 'rdtr']</t>
+          <t>['pantauan', 'tinggi', 'pintu', 'air', 'dan', 'pompa', 'pagi', 'ini']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['pantauan', 'tinggi', 'pintu', 'air', 'dan', 'pompa', 'pagi', 'ini']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['rapat', 'bapemperda', 'dprd', 'provinsi', 'dki', 'jakarta', 'komisikomisi', 'zoom', 'online', 'revisi', 'perda', 'rdtr']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['rapat', 'bapemperda', 'dprd', 'provinsi', 'dki', 'jakarta', 'komisikomisi', 'zoom', 'online', 'revisi', 'perda', 'rdtr']</t>
+          <t>['pantauan', 'pintu', 'air', 'pompa', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['pantau', 'pintu', 'air', 'pompa', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3039,34 +3400,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>19702</v>
+        <v>32439</v>
       </c>
       <c r="C74" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>kordinasi dan tindaklanjut genangan karena hujan deras di cikoding ada genangan yg terus menerus krn proyek tol</t>
+          <t>pompa jalan utk menyurutkan genangan dan penampungan</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['kordinasi', 'dan', 'tindaklanjut', 'genangan', 'karena', 'hujan', 'deras', 'di', 'cikoding', 'ada', 'genangan', 'yg', 'terus', 'menerus', 'krn', 'proyek', 'tol']</t>
+          <t>['pompa', 'jalan', 'utk', 'menyurutkan', 'genangan', 'dan', 'penampungan']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['pompa', 'jalan', 'untuk', 'menyurutkan', 'genangan', 'dan', 'penampungan']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['kordinasi', 'tindaklanjut', 'genangan', 'hujan', 'deras', 'cikoding', 'genangan', 'menerus', 'proyek', 'tol']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['kordinasi', 'tindaklanjut', 'genang', 'hujan', 'deras', 'cikoding', 'genang', 'terus', 'proyek', 'tol']</t>
+          <t>['pompa', 'jalan', 'menyurutkan', 'genangan', 'penampungan']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['pompa', 'jalan', 'surut', 'genang', 'tampung']</t>
         </is>
       </c>
     </row>
@@ -3075,34 +3441,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>19703</v>
+        <v>32440</v>
       </c>
       <c r="C75" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>kordinasi penyurutan genangan air lokasi pegangsaan kec klp gdg jakut semangat petugas biru dan orens di punca</t>
+          <t>penampungan jg sdh ditambahkan agar air ga stuck di sal phb semoga ga banjir dan genangan cepat surut</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['kordinasi', 'penyurutan', 'genangan', 'air', 'lokasi', 'pegangsaan', 'kec', 'klp', 'gdg', 'jakut', 'semangat', 'petugas', 'biru', 'dan', 'orens', 'di', 'punca']</t>
+          <t>['penampungan', 'jg', 'sdh', 'ditambahkan', 'agar', 'air', 'ga', 'stuck', 'di', 'sal', 'phb', 'semoga', 'ga', 'banjir', 'dan', 'genangan', 'cepat', 'surut']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['penampungan', 'juga', 'sudah', 'ditambahkan', 'agar', 'air', 'tidak', 'stuck', 'di', 'sal', 'phb', 'semoga', 'tidak', 'banjir', 'dan', 'genangan', 'cepat', 'surut']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['kordinasi', 'penyurutan', 'genangan', 'air', 'lokasi', 'pegangsaan', 'kec', 'klp', 'gdg', 'jakut', 'semangat', 'petugas', 'biru', 'orens', 'punca']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['kordinasi', 'surut', 'genang', 'air', 'lokasi', 'gangsa', 'kec', 'klp', 'gdg', 'jakut', 'semangat', 'tugas', 'biru', 'orens', 'punca']</t>
+          <t>['penampungan', 'air', 'stuck', 'sal', 'phb', 'semoga', 'banjir', 'genangan', 'cepat', 'surut']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['tampung', 'air', 'stuck', 'sal', 'phb', 'moga', 'banjir', 'genang', 'cepat', 'surut']</t>
         </is>
       </c>
     </row>
@@ -3111,34 +3482,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>19704</v>
+        <v>32441</v>
       </c>
       <c r="C76" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>waspada banjir jakarta untuk jakut khususnya klp gdg cilincing koja pompa sdh beroperasi dan sebagian standby</t>
+          <t>laut posisi pasang mengakibatkan sulitnya aliran air deras ke laut tp kordinasi dgn sda utk pompa maksimal dan pomp</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['waspada', 'banjir', 'jakarta', 'untuk', 'jakut', 'khususnya', 'klp', 'gdg', 'cilincing', 'koja', 'pompa', 'sdh', 'beroperasi', 'dan', 'sebagian', 'standby']</t>
+          <t>['laut', 'posisi', 'pasang', 'mengakibatkan', 'sulitnya', 'aliran', 'air', 'deras', 'ke', 'laut', 'tp', 'kordinasi', 'dgn', 'sda', 'utk', 'pompa', 'maksimal', 'dan', 'pomp']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['laut', 'posisi', 'pasang', 'mengakibatkan', 'sulitnya', 'aliran', 'air', 'deras', 'ke', 'laut', 'tetapi', 'kordinasi', 'dengan', 'sda', 'untuk', 'pompa', 'maksimal', 'dan', 'pomp']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['waspada', 'banjir', 'jakarta', 'jakut', 'klp', 'gdg', 'cilincing', 'koja', 'pompa', 'beroperasi', 'standby']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['waspada', 'banjir', 'jakarta', 'jakut', 'klp', 'gdg', 'cilincing', 'koja', 'pompa', 'operasi', 'standby']</t>
+          <t>['laut', 'posisi', 'pasang', 'mengakibatkan', 'sulitnya', 'aliran', 'air', 'deras', 'laut', 'kordinasi', 'sda', 'pompa', 'maksimal', 'pomp']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['laut', 'posisi', 'pasang', 'akibat', 'sulit', 'alir', 'air', 'deras', 'laut', 'kordinasi', 'sda', 'pompa', 'maksimal', 'pomp']</t>
         </is>
       </c>
     </row>
@@ -3147,34 +3523,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>19705</v>
+        <v>32442</v>
       </c>
       <c r="C77" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt jakarta badan meteorologi klimatologi dan geofisika bmkg memperingatkan status siaga banjir di dki jakarta hingga jawa barat</t>
+          <t>kordinasi pantau banjir klp gading cilincing koja jakut krn hujan deras dan potensi kiriman air dr timur</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'jakarta', 'badan', 'meteorologi', 'klimatologi', 'dan', 'geofisika', 'bmkg', 'memperingatkan', 'status', 'siaga', 'banjir', 'di', 'dki', 'jakarta', 'hingga', 'jawa', 'barat']</t>
+          <t>['kordinasi', 'pantau', 'banjir', 'klp', 'gading', 'cilincing', 'koja', 'jakut', 'krn', 'hujan', 'deras', 'dan', 'potensi', 'kiriman', 'air', 'dr', 'timur']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['kordinasi', 'pantau', 'banjir', 'kelompok', 'gading', 'cilincing', 'koja', 'jakarta, utara', 'karena', 'hujan', 'deras', 'dan', 'potensi', 'kiriman', 'air', 'dari', 'timur']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['jakarta', 'badan', 'meteorologi', 'klimatologi', 'geofisika', 'bmkg', 'memperingatkan', 'status', 'siaga', 'banjir', 'dki', 'jakarta', 'jawa', 'barat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['jakarta', 'badan', 'meteorologi', 'klimatologi', 'geofisika', 'bmkg', 'ingat', 'status', 'siaga', 'banjir', 'dki', 'jakarta', 'jawa', 'barat']</t>
+          <t>['kordinasi', 'pantau', 'banjir', 'kelompok', 'gading', 'cilincing', 'koja', 'jakarta, utara', 'hujan', 'deras', 'potensi', 'kiriman', 'air', 'timur']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'pantau', 'banjir', 'kelompok', 'gading', 'cilincing', 'koja', 'jakarta utara', 'hujan', 'deras', 'potensi', 'kirim', 'air', 'timur']</t>
         </is>
       </c>
     </row>
@@ -3183,34 +3564,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>19706</v>
+        <v>32443</v>
       </c>
       <c r="C78" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>terima kasih sudin sda jakarta utara yang telah menerjunkan satgas pasukan biru dalam melakukan kegiatan pengu</t>
+          <t>memperingati hari kanker sedunia jangan pernah menyerah yaakinlah bahwa setiap penyakit itu ada obatnya dan tetap</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'sudin', 'sda', 'jakarta', 'utara', 'yang', 'telah', 'menerjunkan', 'satgas', 'pasukan', 'biru', 'dalam', 'melakukan', 'kegiatan', 'pengu']</t>
+          <t>['memperingati', 'hari', 'kanker', 'sedunia', 'jangan', 'pernah', 'menyerah', 'yaakinlah', 'bahwa', 'setiap', 'penyakit', 'itu', 'ada', 'obatnya', 'dan', 'tetap']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['memperingati', 'hari', 'kanker', 'sedunia', 'jangan', 'pernah', 'menyerah', 'yaakinlah', 'bahwa', 'setiap', 'penyakit', 'itu', 'ada', 'obatnya', 'dan', 'tetap']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['terima', 'kasih', 'sudin', 'sda', 'jakarta', 'utara', 'menerjunkan', 'satgas', 'pasukan', 'biru', 'kegiatan', 'pengu']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'sudin', 'sda', 'jakarta', 'utara', 'terjun', 'satgas', 'pasu', 'biru', 'giat', 'pengu']</t>
+          <t>['memperingati', 'kanker', 'sedunia', 'menyerah', 'yaakinlah', 'penyakit', 'obatnya']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['ingat', 'kanker', 'dunia', 'serah', 'yaakinlah', 'sakit', 'obat']</t>
         </is>
       </c>
     </row>
@@ -3219,34 +3605,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>19707</v>
+        <v>32444</v>
       </c>
       <c r="C79" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>update penanggulangan banjir kolam olakan depan mall kelapa gading sudah rampung kolam dan tinggal finishing</t>
+          <t>hai guys di video kali ini aku mau share kondisi aku yang positif covid tapi cuma hari penasaran seperti apa yu</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['update', 'penanggulangan', 'banjir', 'kolam', 'olakan', 'depan', 'mall', 'kelapa', 'gading', 'sudah', 'rampung', 'kolam', 'dan', 'tinggal', 'finishing']</t>
+          <t>['hai', 'guys', 'di', 'video', 'kali', 'ini', 'aku', 'mau', 'share', 'kondisi', 'aku', 'yang', 'positif', 'covid', 'tapi', 'cuma', 'hari', 'penasaran', 'seperti', 'apa', 'yu']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['hai', 'guys', 'di', 'video', 'kali', 'ini', 'aku', 'mau', 'bagikan', 'kondisi', 'aku', 'yang', 'positif', 'covid', 'tapi', 'cuma', 'hari', 'penasaran', 'seperti', 'apa', 'yu']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['update', 'penanggulangan', 'banjir', 'kolam', 'olakan', 'mall', 'kelapa', 'gading', 'rampung', 'kolam', 'tinggal', 'finishing']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['update', 'tanggulang', 'banjir', 'kolam', 'olak', 'mall', 'kelapa', 'gading', 'rampung', 'kolam', 'tinggal', 'finishing']</t>
+          <t>['hai', 'guys', 'video', 'kali', 'bagikan', 'kondisi', 'positif', 'covid', 'penasaran', 'yu']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['hai', 'guys', 'video', 'kali', 'bagi', 'kondisi', 'positif', 'covid', 'penasaran', 'yu']</t>
         </is>
       </c>
     </row>
@@ -3255,34 +3646,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>19708</v>
+        <v>32445</v>
       </c>
       <c r="C80" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>jadi air disedot terus ya guys amp pembersihan saluran amp sampah jalan terus pompa don bosco yang down on progress</t>
+          <t>mengikuti pelaksanaan musrenbang tingkat kecamatan tahun di wilayah kelurahan kalibaru dan kelapa gading barat</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['jadi', 'air', 'disedot', 'terus', 'ya', 'guys', 'amp', 'pembersihan', 'saluran', 'amp', 'sampah', 'jalan', 'terus', 'pompa', 'don', 'bosco', 'yang', 'down', 'on', 'progress']</t>
+          <t>['mengikuti', 'pelaksanaan', 'musrenbang', 'tingkat', 'kecamatan', 'tahun', 'di', 'wilayah', 'kelurahan', 'kalibaru', 'dan', 'kelapa', 'gading', 'barat']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['mengikuti', 'pelaksanaan', 'musrenbang', 'tingkat', 'kecamatan', 'tahun', 'di', 'wilayah', 'kelurahan', 'kalibaru', 'dan', 'kelapa', 'gading', 'barat']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['air', 'disedot', 'guys', 'pembersihan', 'saluran', 'sampah', 'jalan', 'pompa', 'don', 'bosco', 'down', 'on', 'progress']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['air', 'sedot', 'guys', 'bersih', 'salur', 'sampah', 'jalan', 'pompa', 'don', 'bosco', 'down', 'on', 'progress']</t>
+          <t>['mengikuti', 'pelaksanaan', 'musrenbang', 'tingkat', 'kecamatan', 'wilayah', 'kelurahan', 'kalibaru', 'kelapa', 'gading', 'barat']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['ikut', 'laksana', 'musrenbang', 'tingkat', 'camat', 'wilayah', 'lurah', 'kalibaru', 'kelapa', 'gading', 'barat']</t>
         </is>
       </c>
     </row>
@@ -3291,34 +3687,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>19709</v>
+        <v>32446</v>
       </c>
       <c r="C81" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>update penanganan dan antisipasi banjir kelapa gading gerimisgerimis manja di gading tapi takut hujan besar lagi</t>
+          <t>yuhuuu setlah kordinasi dan tinjauan pompa klp gdg timur beres trims jg untuk jajaran sudin tata air jakut</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['update', 'penanganan', 'dan', 'antisipasi', 'banjir', 'kelapa', 'gading', 'gerimisgerimis', 'manja', 'di', 'gading', 'tapi', 'takut', 'hujan', 'besar', 'lagi']</t>
+          <t>['yuhuuu', 'setlah', 'kordinasi', 'dan', 'tinjauan', 'pompa', 'klp', 'gdg', 'timur', 'beres', 'trims', 'jg', 'untuk', 'jajaran', 'sudin', 'tata', 'air', 'jakut']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['yuhuuu', 'setlah', 'kordinasi', 'dan', 'tinjauan', 'pompa', 'kelompok', 'gudang', 'timur', 'beres', 'terima, kasih', 'juga', 'untuk', 'jajaran', 'sudin', 'tata', 'air', 'jakarta, utara']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['update', 'penanganan', 'antisipasi', 'banjir', 'kelapa', 'gading', 'gerimisgerimis', 'manja', 'gading', 'takut', 'hujan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['update', 'tangan', 'antisipasi', 'banjir', 'kelapa', 'gading', 'gerimisgerimis', 'manja', 'gading', 'takut', 'hujan']</t>
+          <t>['yuhuuu', 'setlah', 'kordinasi', 'tinjauan', 'pompa', 'kelompok', 'gudang', 'timur', 'beres', 'terima, kasih', 'jajaran', 'sudin', 'tata', 'air', 'jakarta, utara']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['yuhuuu', 'set', 'kordinasi', 'tinjau', 'pompa', 'kelompok', 'gudang', 'timur', 'beres', 'terima kasih', 'jajar', 'sudin', 'tata', 'air', 'jakarta utara']</t>
         </is>
       </c>
     </row>
@@ -3327,34 +3728,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>19710</v>
+        <v>32447</v>
       </c>
       <c r="C82" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>kerusakan saluran ini disebabkan pembangunan tol yang menjadi penyebab utama seringnya terjadi genangan banjir ketika hujan besar</t>
+          <t>rapat bapemperda dprd provinsi dki jakarta bersama komisikomisi melalui zoom online tentang revisi perda rdtr</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['kerusakan', 'saluran', 'ini', 'disebabkan', 'pembangunan', 'tol', 'yang', 'menjadi', 'penyebab', 'utama', 'seringnya', 'terjadi', 'genangan', 'banjir', 'ketika', 'hujan', 'besar']</t>
+          <t>['rapat', 'bapemperda', 'dprd', 'provinsi', 'dki', 'jakarta', 'bersama', 'komisikomisi', 'melalui', 'zoom', 'online', 'tentang', 'revisi', 'perda', 'rdtr']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rapat', 'bapemperda', 'dewan, perwakilan, rakyat, daerah', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'bersama', 'komisikomisi', 'melalui', 'zoom', 'online', 'tentang', 'revisi', 'peraturan, daerah', 'rdtr']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['kerusakan', 'saluran', 'disebabkan', 'pembangunan', 'tol', 'penyebab', 'utama', 'genangan', 'banjir', 'hujan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['rusa', 'salur', 'sebab', 'bangun', 'tol', 'sebab', 'utama', 'genang', 'banjir', 'hujan']</t>
+          <t>['rapat', 'bapemperda', 'dewan, perwakilan, rakyat, daerah', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'komisikomisi', 'zoom', 'online', 'revisi', 'peraturan, daerah', 'rdtr']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['rapat', 'bapemperda', 'dewan wakil rakyat daerah', 'provinsi', 'daerah khusus ibukota', 'jakarta', 'komisikomisi', 'zoom', 'online', 'revisi', 'atur daerah', 'rdtr']</t>
         </is>
       </c>
     </row>
@@ -3363,34 +3769,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19711</v>
+        <v>32448</v>
       </c>
       <c r="C83" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>update banjir amp tindak lanjut permohonan warga terus kordinasi dan monitor pembangunan saluran precast kelapa gadi</t>
+          <t>kordinasi dan tindaklanjut genangan karena hujan deras di cikoding ada genangan yg terus menerus krn proyek tol</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['update', 'banjir', 'amp', 'tindak', 'lanjut', 'permohonan', 'warga', 'terus', 'kordinasi', 'dan', 'monitor', 'pembangunan', 'saluran', 'precast', 'kelapa', 'gadi']</t>
+          <t>['kordinasi', 'dan', 'tindaklanjut', 'genangan', 'karena', 'hujan', 'deras', 'di', 'cikoding', 'ada', 'genangan', 'yg', 'terus', 'menerus', 'krn', 'proyek', 'tol']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kordinasi', 'dan', 'tindaklanjut', 'genangan', 'karena', 'hujan', 'deras', 'di', 'cikoding', 'ada', 'genangan', 'yang', 'terus', 'menerus', 'karena', 'proyek', 'tol']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['update', 'banjir', 'tindak', 'permohonan', 'warga', 'kordinasi', 'monitor', 'pembangunan', 'saluran', 'precast', 'kelapa', 'gadi']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['update', 'banjir', 'tindak', 'mohon', 'warga', 'kordinasi', 'monitor', 'bangun', 'salur', 'precast', 'kelapa', 'gadi']</t>
+          <t>['kordinasi', 'tindaklanjut', 'genangan', 'hujan', 'deras', 'cikoding', 'genangan', 'menerus', 'proyek', 'tol']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'tindaklanjut', 'genang', 'hujan', 'deras', 'cikoding', 'genang', 'terus', 'proyek', 'tol']</t>
         </is>
       </c>
     </row>
@@ -3399,34 +3810,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19712</v>
+        <v>32449</v>
       </c>
       <c r="C84" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>kordinasi penyurutan genangan air lokasi pegangsaan kec klp gdg jakut semangat petugas biru dan orens di punca</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['kordinasi', 'penyurutan', 'genangan', 'air', 'lokasi', 'pegangsaan', 'kec', 'klp', 'gdg', 'jakut', 'semangat', 'petugas', 'biru', 'dan', 'orens', 'di', 'punca']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kordinasi', 'penyurutan', 'genangan', 'air', 'lokasi', 'pegangsaan', 'kecamatan', 'kelompok', 'gudang', 'jakarta, utara', 'semangat', 'petugas', 'biru', 'dan', 'orens', 'di', 'punca']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['kordinasi', 'penyurutan', 'genangan', 'air', 'lokasi', 'pegangsaan', 'kecamatan', 'kelompok', 'gudang', 'jakarta, utara', 'semangat', 'petugas', 'biru', 'orens', 'punca']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['kordinasi', 'surut', 'genang', 'air', 'lokasi', 'gangsa', 'camat', 'kelompok', 'gudang', 'jakarta utara', 'semangat', 'tugas', 'biru', 'orens', 'punca']</t>
         </is>
       </c>
     </row>
@@ -3435,34 +3851,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19713</v>
+        <v>32450</v>
       </c>
       <c r="C85" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>waspada banjir jakarta untuk jakut khususnya klp gdg cilincing koja pompa sdh beroperasi dan sebagian standby</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['waspada', 'banjir', 'jakarta', 'untuk', 'jakut', 'khususnya', 'klp', 'gdg', 'cilincing', 'koja', 'pompa', 'sdh', 'beroperasi', 'dan', 'sebagian', 'standby']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['waspada', 'banjir', 'jakarta', 'untuk', 'jakarta, utara', 'khususnya', 'kelompok', 'gudang', 'cilincing', 'koja', 'pompa', 'sudah', 'beroperasi', 'dan', 'sebagian', 'standby']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['waspada', 'banjir', 'jakarta', 'jakarta, utara', 'kelompok', 'gudang', 'cilincing', 'koja', 'pompa', 'beroperasi', 'standby']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['waspada', 'banjir', 'jakarta', 'jakarta utara', 'kelompok', 'gudang', 'cilincing', 'koja', 'pompa', 'operasi', 'standby']</t>
         </is>
       </c>
     </row>
@@ -3471,34 +3892,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19714</v>
+        <v>32451</v>
       </c>
       <c r="C86" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>rt jakarta badan meteorologi klimatologi dan geofisika bmkg memperingatkan status siaga banjir di dki jakarta hingga jawa barat</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['rt', 'jakarta', 'badan', 'meteorologi', 'klimatologi', 'dan', 'geofisika', 'bmkg', 'memperingatkan', 'status', 'siaga', 'banjir', 'di', 'dki', 'jakarta', 'hingga', 'jawa', 'barat']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'badan', 'meteorologi', 'klimatologi', 'dan', 'geofisika', 'bmkg', 'memperingatkan', 'status', 'siaga', 'banjir', 'di', 'daerah, khusus, ibukota', 'jakarta', 'hingga', 'jawa', 'barat']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['jakarta', 'badan', 'meteorologi', 'klimatologi', 'geofisika', 'bmkg', 'memperingatkan', 'status', 'siaga', 'banjir', 'daerah, khusus, ibukota', 'jakarta', 'jawa', 'barat']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['jakarta', 'badan', 'meteorologi', 'klimatologi', 'geofisika', 'bmkg', 'ingat', 'status', 'siaga', 'banjir', 'daerah khusus ibukota', 'jakarta', 'jawa', 'barat']</t>
         </is>
       </c>
     </row>
@@ -3507,34 +3933,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19715</v>
+        <v>32452</v>
       </c>
       <c r="C87" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>terima kasih sudin sda jakarta utara yang telah menerjunkan satgas pasukan biru dalam melakukan kegiatan pengu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['terima', 'kasih', 'sudin', 'sda', 'jakarta', 'utara', 'yang', 'telah', 'menerjunkan', 'satgas', 'pasukan', 'biru', 'dalam', 'melakukan', 'kegiatan', 'pengu']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'sudin', 'sda', 'jakarta', 'utara', 'yang', 'telah', 'menerjunkan', 'satuan, tugas', 'pasukan', 'biru', 'dalam', 'melakukan', 'kegiatan', 'pengu']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['terima', 'kasih', 'sudin', 'sda', 'jakarta', 'utara', 'menerjunkan', 'satuan, tugas', 'pasukan', 'biru', 'kegiatan', 'pengu']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'sudin', 'sda', 'jakarta', 'utara', 'terjun', 'satu tugas', 'pasu', 'biru', 'giat', 'pengu']</t>
         </is>
       </c>
     </row>
@@ -3543,34 +3974,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19716</v>
+        <v>32453</v>
       </c>
       <c r="C88" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>update penanggulangan banjir kolam olakan depan mall kelapa gading sudah rampung kolam dan tinggal finishing</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['update', 'penanggulangan', 'banjir', 'kolam', 'olakan', 'depan', 'mall', 'kelapa', 'gading', 'sudah', 'rampung', 'kolam', 'dan', 'tinggal', 'finishing']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pembaruan', 'penanggulangan', 'banjir', 'kolam', 'olakan', 'depan', 'mal', 'kelapa', 'gading', 'sudah', 'rampung', 'kolam', 'dan', 'tinggal', 'finishing']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['pembaruan', 'penanggulangan', 'banjir', 'kolam', 'olakan', 'mal', 'kelapa', 'gading', 'rampung', 'kolam', 'tinggal', 'finishing']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['baru', 'tanggulang', 'banjir', 'kolam', 'olak', 'mal', 'kelapa', 'gading', 'rampung', 'kolam', 'tinggal', 'finishing']</t>
         </is>
       </c>
     </row>
@@ -3579,34 +4015,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19717</v>
+        <v>32454</v>
       </c>
       <c r="C89" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>jadi air disedot terus ya guys amp pembersihan saluran amp sampah jalan terus pompa don bosco yang down on progress</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['jadi', 'air', 'disedot', 'terus', 'ya', 'guys', 'amp', 'pembersihan', 'saluran', 'amp', 'sampah', 'jalan', 'terus', 'pompa', 'don', 'bosco', 'yang', 'down', 'on', 'progress']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['jadi', 'air', 'disedot', 'terus', 'ya', 'guys', 'amp', 'pembersihan', 'saluran', 'amp', 'sampah', 'jalan', 'terus', 'pompa', 'don', 'bosco', 'yang', 'down', 'on', 'progress']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['air', 'disedot', 'guys', 'pembersihan', 'saluran', 'sampah', 'jalan', 'pompa', 'don', 'bosco', 'down', 'on', 'progress']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['air', 'sedot', 'guys', 'bersih', 'salur', 'sampah', 'jalan', 'pompa', 'don', 'bosco', 'down', 'on', 'progress']</t>
         </is>
       </c>
     </row>
@@ -3615,34 +4056,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19718</v>
+        <v>32455</v>
       </c>
       <c r="C90" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>update penanganan dan antisipasi banjir kelapa gading gerimisgerimis manja di gading tapi takut hujan besar lagi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['update', 'penanganan', 'dan', 'antisipasi', 'banjir', 'kelapa', 'gading', 'gerimisgerimis', 'manja', 'di', 'gading', 'tapi', 'takut', 'hujan', 'besar', 'lagi']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pembaruan', 'penanganan', 'dan', 'antisipasi', 'banjir', 'kelapa', 'gading', 'gerimisgerimis', 'manja', 'di', 'gading', 'tapi', 'takut', 'hujan', 'besar', 'lagi']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['pembaruan', 'penanganan', 'antisipasi', 'banjir', 'kelapa', 'gading', 'gerimisgerimis', 'manja', 'gading', 'takut', 'hujan']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['baru', 'tangan', 'antisipasi', 'banjir', 'kelapa', 'gading', 'gerimisgerimis', 'manja', 'gading', 'takut', 'hujan']</t>
         </is>
       </c>
     </row>
@@ -3651,34 +4097,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19719</v>
+        <v>32456</v>
       </c>
       <c r="C91" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>pompa bgr air lumpur tarik air kelapa nias amp sport mall kelapa gading barat buang ke kali sunter</t>
+          <t>kerusakan saluran ini disebabkan pembangunan tol yang menjadi penyebab utama seringnya terjadi genangan banjir ketika hujan besar</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['pompa', 'bgr', 'air', 'lumpur', 'tarik', 'air', 'kelapa', 'nias', 'amp', 'sport', 'mall', 'kelapa', 'gading', 'barat', 'buang', 'ke', 'kali', 'sunter']</t>
+          <t>['kerusakan', 'saluran', 'ini', 'disebabkan', 'pembangunan', 'tol', 'yang', 'menjadi', 'penyebab', 'utama', 'seringnya', 'terjadi', 'genangan', 'banjir', 'ketika', 'hujan', 'besar']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['kerusakan', 'saluran', 'ini', 'disebabkan', 'pembangunan', 'tol', 'yang', 'menjadi', 'penyebab', 'utama', 'seringnya', 'terjadi', 'genangan', 'banjir', 'ketika', 'hujan', 'besar']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['pompa', 'bgr', 'air', 'lumpur', 'tarik', 'air', 'kelapa', 'nias', 'sport', 'mall', 'kelapa', 'gading', 'barat', 'buang', 'kali', 'sunter']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['pompa', 'bgr', 'air', 'lumpur', 'tarik', 'air', 'kelapa', 'nias', 'sport', 'mall', 'kelapa', 'gading', 'barat', 'buang', 'kali', 'sunter']</t>
+          <t>['kerusakan', 'saluran', 'disebabkan', 'pembangunan', 'tol', 'penyebab', 'utama', 'genangan', 'banjir', 'hujan']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['rusa', 'salur', 'sebab', 'bangun', 'tol', 'sebab', 'utama', 'genang', 'banjir', 'hujan']</t>
         </is>
       </c>
     </row>
@@ -3687,34 +4138,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19720</v>
+        <v>32457</v>
       </c>
       <c r="C92" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>baru saja mengirim foto</t>
+          <t>update banjir amp tindak lanjut permohonan warga terus kordinasi dan monitor pembangunan saluran precast kelapa gadi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+          <t>['update', 'banjir', 'amp', 'tindak', 'lanjut', 'permohonan', 'warga', 'terus', 'kordinasi', 'dan', 'monitor', 'pembangunan', 'saluran', 'precast', 'kelapa', 'gadi']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pembaruan', 'banjir', 'amp', 'tindak', 'lanjut', 'permohonan', 'warga', 'terus', 'kordinasi', 'dan', 'monitor', 'pembangunan', 'saluran', 'precast', 'kelapa', 'gadi']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['mengirim', 'foto']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['kirim', 'foto']</t>
+          <t>['pembaruan', 'banjir', 'tindak', 'permohonan', 'warga', 'kordinasi', 'monitor', 'pembangunan', 'saluran', 'precast', 'kelapa', 'gadi']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['baru', 'banjir', 'tindak', 'mohon', 'warga', 'kordinasi', 'monitor', 'bangun', 'salur', 'precast', 'kelapa', 'gadi']</t>
         </is>
       </c>
     </row>
@@ -3723,10 +4179,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19721</v>
+        <v>32458</v>
       </c>
       <c r="C93" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3740,15 +4196,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -3759,10 +4220,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>19722</v>
+        <v>32459</v>
       </c>
       <c r="C94" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3776,15 +4237,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -3795,10 +4261,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>19723</v>
+        <v>32460</v>
       </c>
       <c r="C95" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3812,15 +4278,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -3831,34 +4302,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>19724</v>
+        <v>32461</v>
       </c>
       <c r="C96" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>dirgahayu pdi perjuangan ke tetap bergotongroyong untuk merawat dan mencintai kebudayaan dan alam nusantara ki</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'pdi', 'perjuangan', 'ke', 'tetap', 'bergotongroyong', 'untuk', 'merawat', 'dan', 'mencintai', 'kebudayaan', 'dan', 'alam', 'nusantara', 'ki']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'pdi', 'perjuangan', 'bergotongroyong', 'merawat', 'mencintai', 'kebudayaan', 'alam', 'nusantara', 'ki']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['dirgahayu', 'pdi', 'juang', 'bergotongroyong', 'rawat', 'cinta', 'budaya', 'alam', 'nusantara', 'ki']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -3867,10 +4343,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>19725</v>
+        <v>32462</v>
       </c>
       <c r="C97" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3884,15 +4360,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
@@ -3903,34 +4384,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>19726</v>
+        <v>32463</v>
       </c>
       <c r="C98" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>hari ini mengikuti bimtek hut pdi perjuangan ke merdeka</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'mengikuti', 'bimtek', 'hut', 'pdi', 'perjuangan', 'ke', 'merdeka']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['mengikuti', 'bimtek', 'hut', 'pdi', 'perjuangan', 'merdeka']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['ikut', 'bimtek', 'hut', 'pdi', 'juang', 'merdeka']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -3939,34 +4425,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>19727</v>
+        <v>32464</v>
       </c>
       <c r="C99" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>melakukan registrasi bimtek hut pdi perjuangan ke</t>
+          <t>baru saja mengirim foto</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['melakukan', 'registrasi', 'bimtek', 'hut', 'pdi', 'perjuangan', 'ke']</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['registrasi', 'bimtek', 'hut', 'pdi', 'perjuangan']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['registrasi', 'bimtek', 'hut', 'pdi', 'juang']</t>
+          <t>['mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['kirim', 'foto']</t>
         </is>
       </c>
     </row>
@@ -3975,34 +4466,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>19728</v>
+        <v>32465</v>
       </c>
       <c r="C100" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>baru saja mengirim video</t>
+          <t>pompa bgr air lumpur tarik air kelapa nias amp sport mall kelapa gading barat buang ke kali sunter</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['baru', 'saja', 'mengirim', 'video']</t>
+          <t>['pompa', 'bgr', 'air', 'lumpur', 'tarik', 'air', 'kelapa', 'nias', 'amp', 'sport', 'mall', 'kelapa', 'gading', 'barat', 'buang', 'ke', 'kali', 'sunter']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['pompa', 'bgr', 'air', 'lumpur', 'tarik', 'air', 'kelapa', 'nias', 'amp', 'sport', 'mal', 'kelapa', 'gading', 'barat', 'buang', 'ke', 'kali', 'sunter']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['mengirim', 'video']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['kirim', 'video']</t>
+          <t>['pompa', 'bgr', 'air', 'lumpur', 'tarik', 'air', 'kelapa', 'nias', 'sport', 'mal', 'kelapa', 'gading', 'barat', 'buang', 'kali', 'sunter']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['pompa', 'bgr', 'air', 'lumpur', 'tarik', 'air', 'kelapa', 'nias', 'sport', 'mal', 'kelapa', 'gading', 'barat', 'buang', 'kali', 'sunter']</t>
         </is>
       </c>
     </row>
@@ -4011,10 +4507,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>19729</v>
+        <v>32466</v>
       </c>
       <c r="C101" t="n">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4028,15 +4524,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['baru', 'saja', 'mengirim', 'foto']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>['mengirim', 'foto']</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>['kirim', 'foto']</t>
         </is>
